--- a/jenkinsProjects/people1728464507838.xlsx
+++ b/jenkinsProjects/people1728464507838.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="1047">
   <si>
     <t>product</t>
   </si>
@@ -319,6 +332,9 @@
     <t>https://jenkins.osinfra.cn/job/easysoftware-prod/job/easysoftware-prod-cronjob-autoupgrade/4/</t>
   </si>
   <si>
+    <t>easysoftware</t>
+  </si>
+  <si>
     <t>EasySoftwareInput</t>
   </si>
   <si>
@@ -805,6 +821,9 @@
     <t>https://jenkins.osinfra.cn/job/merlin-prod/job/merlin-prod-clam-db/2/</t>
   </si>
   <si>
+    <t>openmerlin</t>
+  </si>
+  <si>
     <t>clam-go</t>
   </si>
   <si>
@@ -1138,6 +1157,9 @@
     <t>https://jenkins.osinfra.cn/job/message-center/job/message-center-prod/job/message-center-prod-collect/3/</t>
   </si>
   <si>
+    <t>消息中心</t>
+  </si>
+  <si>
     <t>message-collect-githook</t>
   </si>
   <si>
@@ -1246,6 +1268,9 @@
     <t>https://jenkins.osinfra.cn/job/Mindspore-internship/44/</t>
   </si>
   <si>
+    <t>mindspore</t>
+  </si>
+  <si>
     <t>mindspore-jenkins-slave-images-amd</t>
   </si>
   <si>
@@ -1342,9 +1367,6 @@
     <t>https://github.com/7Light/app-publish.git</t>
   </si>
   <si>
-    <t>mindspore</t>
-  </si>
-  <si>
     <t>https://jenkins.osinfra.cn/job/mindspore-repo-post-verification/job/mindspore-repo-post-verification-step1-production-environment/15/</t>
   </si>
   <si>
@@ -1519,6 +1541,9 @@
     <t>https://jenkins.osinfra.cn/job/om-data-datastat-server/job/om-data-om-webserver-ds-image-build/107/</t>
   </si>
   <si>
+    <t>账号服务</t>
+  </si>
+  <si>
     <t>om-data-webserver</t>
   </si>
   <si>
@@ -1564,6 +1589,9 @@
     <t>https://jenkins.osinfra.cn/job/omni/job/omni-frontend/3/</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>omni-insight</t>
   </si>
   <si>
@@ -1642,6 +1670,9 @@
     <t>https://jenkins.osinfra.cn/job/openeuler-2203ltscontribution/59/</t>
   </si>
   <si>
+    <t>openeuler</t>
+  </si>
+  <si>
     <t>openEuler-BTFHub</t>
   </si>
   <si>
@@ -2566,6 +2597,9 @@
     <t>https://jenkins.osinfra.cn/job/openlookeng-prod/job/openlookeng-prod-website-bugs/17/</t>
   </si>
   <si>
+    <t>openlookeng</t>
+  </si>
+  <si>
     <t>openlookeng-website-doc-sync-by-tag</t>
   </si>
   <si>
@@ -2602,6 +2636,9 @@
     <t>https://jenkins.osinfra.cn/job/openmind-api-autotest/job/openmind-api-hub/41/</t>
   </si>
   <si>
+    <t>openmind</t>
+  </si>
+  <si>
     <t>ops-sandbox-image-publish</t>
   </si>
   <si>
@@ -2717,6 +2754,9 @@
   </si>
   <si>
     <t>https://jenkins.osinfra.cn/job/radiaTest/job/radiaTest-beta/job/radiaTest-beta-nginx/43/</t>
+  </si>
+  <si>
+    <t>机器人</t>
   </si>
   <si>
     <t>robot-gitee</t>
@@ -3133,24 +3173,379 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF14141F"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3158,23 +3553,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3216,7 +3907,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3251,7 +3942,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3425,19 +4116,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M108" sqref="M108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="56.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="81.1428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +4161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3489,7 +4187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3515,7 +4213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3541,7 +4239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3567,7 +4265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3593,7 +4291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3619,7 +4317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3645,7 +4343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -3671,7 +4369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -3697,7 +4395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -3723,7 +4421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3749,7 +4447,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -3775,7 +4473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3801,7 +4499,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -3827,7 +4525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3853,7 +4551,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3879,7 +4577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -3905,7 +4603,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -3930,45 +4628,51 @@
       <c r="H19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="J19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -3977,24 +4681,27 @@
         <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>107</v>
+      </c>
+      <c r="J21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -4003,76 +4710,85 @@
         <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>111</v>
+      </c>
+      <c r="J22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>115</v>
+      </c>
+      <c r="J23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="J24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
         <v>37</v>
@@ -4081,24 +4797,24 @@
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -4107,24 +4823,24 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
         <v>37</v>
@@ -4133,24 +4849,24 @@
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
         <v>37</v>
@@ -4159,24 +4875,24 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>137</v>
-      </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
         <v>37</v>
@@ -4185,24 +4901,24 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
         <v>37</v>
@@ -4211,50 +4927,50 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
         <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -4263,24 +4979,24 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -4289,24 +5005,24 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
         <v>37</v>
@@ -4315,50 +5031,50 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
         <v>37</v>
@@ -4367,24 +5083,24 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -4393,24 +5109,24 @@
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -4419,24 +5135,24 @@
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -4445,24 +5161,24 @@
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E40" t="s">
         <v>37</v>
@@ -4471,50 +5187,50 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
         <v>204</v>
       </c>
-      <c r="D41" t="s">
-        <v>205</v>
-      </c>
-      <c r="E41" t="s">
-        <v>206</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>207</v>
-      </c>
-      <c r="H41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -4523,50 +5239,50 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>208</v>
-      </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" t="s">
         <v>214</v>
       </c>
-      <c r="D43" t="s">
-        <v>215</v>
-      </c>
-      <c r="E43" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>217</v>
-      </c>
-      <c r="H43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
         <v>37</v>
@@ -4575,24 +5291,24 @@
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
@@ -4601,24 +5317,24 @@
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -4627,24 +5343,24 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
         <v>37</v>
@@ -4653,24 +5369,24 @@
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H47" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -4679,24 +5395,24 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H48" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -4705,128 +5421,134 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H49" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" t="s">
+        <v>252</v>
+      </c>
+      <c r="H50" t="s">
         <v>247</v>
       </c>
-      <c r="D50" t="s">
-        <v>248</v>
-      </c>
-      <c r="E50" t="s">
-        <v>249</v>
-      </c>
-      <c r="F50" t="s">
-        <v>250</v>
-      </c>
-      <c r="G50" t="s">
-        <v>251</v>
-      </c>
-      <c r="H50" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H51" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E52" t="s">
         <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H52" t="s">
+        <v>259</v>
+      </c>
+      <c r="J52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>257</v>
-      </c>
       <c r="B53" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C53" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D53" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E53" t="s">
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G53" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>265</v>
+      </c>
+      <c r="J53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B54" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D54" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E54" t="s">
         <v>37</v>
@@ -4835,50 +5557,56 @@
         <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>269</v>
+      </c>
+      <c r="J54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C55" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D55" t="s">
+        <v>275</v>
+      </c>
+      <c r="E55" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>277</v>
+      </c>
+      <c r="H55" t="s">
         <v>273</v>
       </c>
-      <c r="E55" t="s">
-        <v>274</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>275</v>
-      </c>
-      <c r="H55" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="J55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C56" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D56" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -4887,50 +5615,56 @@
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H56" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>278</v>
+      </c>
+      <c r="J56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B57" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C57" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E57" t="s">
         <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G57" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H57" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>282</v>
+      </c>
+      <c r="J57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D58" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E58" t="s">
         <v>37</v>
@@ -4939,50 +5673,56 @@
         <v>49</v>
       </c>
       <c r="G58" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H58" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>287</v>
+      </c>
+      <c r="J58" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D59" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G59" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H59" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>292</v>
+      </c>
+      <c r="J59" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B60" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C60" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D60" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E60" t="s">
         <v>37</v>
@@ -4991,544 +5731,607 @@
         <v>49</v>
       </c>
       <c r="G60" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H60" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>298</v>
+      </c>
+      <c r="J60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D61" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" t="s">
+        <v>305</v>
+      </c>
+      <c r="F61" t="s">
+        <v>306</v>
+      </c>
+      <c r="G61" t="s">
+        <v>307</v>
+      </c>
+      <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="E61" t="s">
-        <v>303</v>
-      </c>
-      <c r="F61" t="s">
-        <v>304</v>
-      </c>
-      <c r="G61" t="s">
-        <v>305</v>
-      </c>
-      <c r="H61" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="J61" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B62" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C62" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D62" t="s">
+        <v>310</v>
+      </c>
+      <c r="E62" t="s">
+        <v>311</v>
+      </c>
+      <c r="F62" t="s">
+        <v>312</v>
+      </c>
+      <c r="G62" t="s">
+        <v>313</v>
+      </c>
+      <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="E62" t="s">
-        <v>309</v>
-      </c>
-      <c r="F62" t="s">
-        <v>310</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" t="s">
+        <v>315</v>
+      </c>
+      <c r="D63" t="s">
+        <v>316</v>
+      </c>
+      <c r="E63" t="s">
+        <v>317</v>
+      </c>
+      <c r="F63" t="s">
+        <v>318</v>
+      </c>
+      <c r="G63" t="s">
+        <v>319</v>
+      </c>
+      <c r="H63" t="s">
+        <v>314</v>
+      </c>
+      <c r="J63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" t="s">
+        <v>320</v>
+      </c>
+      <c r="C64" t="s">
+        <v>321</v>
+      </c>
+      <c r="D64" t="s">
+        <v>322</v>
+      </c>
+      <c r="E64" t="s">
         <v>311</v>
       </c>
-      <c r="H62" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>295</v>
-      </c>
-      <c r="B63" t="s">
-        <v>312</v>
-      </c>
-      <c r="C63" t="s">
-        <v>313</v>
-      </c>
-      <c r="D63" t="s">
-        <v>314</v>
-      </c>
-      <c r="E63" t="s">
-        <v>315</v>
-      </c>
-      <c r="F63" t="s">
-        <v>316</v>
-      </c>
-      <c r="G63" t="s">
-        <v>317</v>
-      </c>
-      <c r="H63" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>295</v>
-      </c>
-      <c r="B64" t="s">
-        <v>318</v>
-      </c>
-      <c r="C64" t="s">
-        <v>319</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
+        <v>323</v>
+      </c>
+      <c r="G64" t="s">
+        <v>324</v>
+      </c>
+      <c r="H64" t="s">
         <v>320</v>
       </c>
-      <c r="E64" t="s">
-        <v>309</v>
-      </c>
-      <c r="F64" t="s">
-        <v>321</v>
-      </c>
-      <c r="G64" t="s">
-        <v>322</v>
-      </c>
-      <c r="H64" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="J64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B65" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D65" t="s">
+        <v>327</v>
+      </c>
+      <c r="E65" t="s">
+        <v>311</v>
+      </c>
+      <c r="F65" t="s">
+        <v>328</v>
+      </c>
+      <c r="G65" t="s">
+        <v>329</v>
+      </c>
+      <c r="H65" t="s">
         <v>325</v>
       </c>
-      <c r="E65" t="s">
-        <v>309</v>
-      </c>
-      <c r="F65" t="s">
-        <v>326</v>
-      </c>
-      <c r="G65" t="s">
-        <v>327</v>
-      </c>
-      <c r="H65" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="J65" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C66" t="s">
+        <v>331</v>
+      </c>
+      <c r="D66" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F66" t="s">
         <v>328</v>
       </c>
-      <c r="C66" t="s">
-        <v>329</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
+        <v>334</v>
+      </c>
+      <c r="H66" t="s">
         <v>330</v>
       </c>
-      <c r="E66" t="s">
-        <v>331</v>
-      </c>
-      <c r="F66" t="s">
-        <v>326</v>
-      </c>
-      <c r="G66" t="s">
-        <v>332</v>
-      </c>
-      <c r="H66" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="J66" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B67" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C67" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D67" t="s">
+        <v>337</v>
+      </c>
+      <c r="E67" t="s">
+        <v>311</v>
+      </c>
+      <c r="F67" t="s">
+        <v>338</v>
+      </c>
+      <c r="G67" t="s">
+        <v>339</v>
+      </c>
+      <c r="H67" t="s">
         <v>335</v>
       </c>
-      <c r="E67" t="s">
-        <v>309</v>
-      </c>
-      <c r="F67" t="s">
-        <v>336</v>
-      </c>
-      <c r="G67" t="s">
-        <v>337</v>
-      </c>
-      <c r="H67" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="J67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B68" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" t="s">
+        <v>341</v>
+      </c>
+      <c r="D68" t="s">
+        <v>342</v>
+      </c>
+      <c r="E68" t="s">
+        <v>311</v>
+      </c>
+      <c r="F68" t="s">
         <v>338</v>
       </c>
-      <c r="C68" t="s">
-        <v>339</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="G68" t="s">
+        <v>343</v>
+      </c>
+      <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="E68" t="s">
-        <v>309</v>
-      </c>
-      <c r="F68" t="s">
-        <v>336</v>
-      </c>
-      <c r="G68" t="s">
-        <v>341</v>
-      </c>
-      <c r="H68" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="J68" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C69" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D69" t="s">
+        <v>346</v>
+      </c>
+      <c r="E69" t="s">
+        <v>347</v>
+      </c>
+      <c r="F69" t="s">
+        <v>348</v>
+      </c>
+      <c r="G69" t="s">
+        <v>349</v>
+      </c>
+      <c r="H69" t="s">
         <v>344</v>
       </c>
-      <c r="E69" t="s">
-        <v>345</v>
-      </c>
-      <c r="F69" t="s">
-        <v>346</v>
-      </c>
-      <c r="G69" t="s">
-        <v>347</v>
-      </c>
-      <c r="H69" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="J69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B70" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" t="s">
+        <v>351</v>
+      </c>
+      <c r="D70" t="s">
+        <v>352</v>
+      </c>
+      <c r="E70" t="s">
+        <v>353</v>
+      </c>
+      <c r="F70" t="s">
         <v>348</v>
       </c>
-      <c r="C70" t="s">
-        <v>349</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="G70" t="s">
+        <v>354</v>
+      </c>
+      <c r="H70" t="s">
         <v>350</v>
       </c>
-      <c r="E70" t="s">
-        <v>351</v>
-      </c>
-      <c r="F70" t="s">
-        <v>346</v>
-      </c>
-      <c r="G70" t="s">
-        <v>352</v>
-      </c>
-      <c r="H70" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="J70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C71" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D71" t="s">
+        <v>357</v>
+      </c>
+      <c r="E71" t="s">
+        <v>358</v>
+      </c>
+      <c r="F71" t="s">
+        <v>359</v>
+      </c>
+      <c r="G71" t="s">
+        <v>360</v>
+      </c>
+      <c r="H71" t="s">
         <v>355</v>
       </c>
-      <c r="E71" t="s">
-        <v>356</v>
-      </c>
-      <c r="F71" t="s">
-        <v>357</v>
-      </c>
-      <c r="G71" t="s">
-        <v>358</v>
-      </c>
-      <c r="H71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="J71" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
+        <v>361</v>
+      </c>
+      <c r="C72" t="s">
+        <v>362</v>
+      </c>
+      <c r="D72" t="s">
+        <v>363</v>
+      </c>
+      <c r="E72" t="s">
+        <v>311</v>
+      </c>
+      <c r="F72" t="s">
         <v>359</v>
       </c>
-      <c r="C72" t="s">
-        <v>360</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="G72" t="s">
+        <v>364</v>
+      </c>
+      <c r="H72" t="s">
         <v>361</v>
       </c>
-      <c r="E72" t="s">
-        <v>309</v>
-      </c>
-      <c r="F72" t="s">
-        <v>357</v>
-      </c>
-      <c r="G72" t="s">
-        <v>362</v>
-      </c>
-      <c r="H72" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="J72" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C73" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D73" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E73" t="s">
         <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G73" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H73" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>365</v>
+      </c>
+      <c r="J73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B74" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C74" t="s">
+        <v>371</v>
+      </c>
+      <c r="D74" t="s">
+        <v>372</v>
+      </c>
+      <c r="E74" t="s">
+        <v>373</v>
+      </c>
+      <c r="F74" t="s">
+        <v>374</v>
+      </c>
+      <c r="G74" t="s">
+        <v>375</v>
+      </c>
+      <c r="H74" t="s">
+        <v>370</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
         <v>369</v>
       </c>
-      <c r="D74" t="s">
-        <v>370</v>
-      </c>
-      <c r="E74" t="s">
-        <v>371</v>
-      </c>
-      <c r="F74" t="s">
-        <v>372</v>
-      </c>
-      <c r="G74" t="s">
-        <v>373</v>
-      </c>
-      <c r="H74" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>367</v>
-      </c>
       <c r="B75" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" t="s">
+        <v>378</v>
+      </c>
+      <c r="D75" t="s">
+        <v>379</v>
+      </c>
+      <c r="E75" t="s">
+        <v>380</v>
+      </c>
+      <c r="F75" t="s">
         <v>374</v>
       </c>
-      <c r="C75" t="s">
-        <v>375</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="G75" t="s">
+        <v>381</v>
+      </c>
+      <c r="H75" t="s">
+        <v>377</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E75" t="s">
-        <v>377</v>
-      </c>
-      <c r="F75" t="s">
-        <v>372</v>
-      </c>
-      <c r="G75" t="s">
-        <v>378</v>
-      </c>
-      <c r="H75" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="76">
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B76" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C76" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D76" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E76" t="s">
+        <v>385</v>
+      </c>
+      <c r="F76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G76" t="s">
+        <v>387</v>
+      </c>
+      <c r="H76" t="s">
         <v>382</v>
       </c>
-      <c r="F76" t="s">
-        <v>383</v>
-      </c>
-      <c r="G76" t="s">
-        <v>384</v>
-      </c>
-      <c r="H76" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="J76" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C77" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D77" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E77" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F77" t="s">
         <v>49</v>
       </c>
       <c r="G77" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H77" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>388</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B78" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C78" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D78" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E78" t="s">
+        <v>396</v>
+      </c>
+      <c r="F78" t="s">
+        <v>374</v>
+      </c>
+      <c r="G78" t="s">
+        <v>397</v>
+      </c>
+      <c r="H78" t="s">
         <v>393</v>
       </c>
-      <c r="F78" t="s">
-        <v>372</v>
-      </c>
-      <c r="G78" t="s">
-        <v>394</v>
-      </c>
-      <c r="H78" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="J78" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B79" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C79" t="s">
+        <v>399</v>
+      </c>
+      <c r="D79" t="s">
+        <v>400</v>
+      </c>
+      <c r="E79" t="s">
         <v>396</v>
       </c>
-      <c r="D79" t="s">
-        <v>397</v>
-      </c>
-      <c r="E79" t="s">
-        <v>393</v>
-      </c>
       <c r="F79" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G79" t="s">
+        <v>401</v>
+      </c>
+      <c r="H79" t="s">
         <v>398</v>
       </c>
-      <c r="H79" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="J79" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B80" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C80" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D80" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E80" t="s">
+        <v>406</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>407</v>
+      </c>
+      <c r="H80" t="s">
         <v>403</v>
       </c>
-      <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s">
-        <v>404</v>
-      </c>
-      <c r="H80" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="J80" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B81" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C81" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D81" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -5537,24 +6340,27 @@
         <v>13</v>
       </c>
       <c r="G81" t="s">
+        <v>412</v>
+      </c>
+      <c r="H81" t="s">
         <v>409</v>
       </c>
-      <c r="H81" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="J81" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B82" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C82" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
@@ -5563,102 +6369,114 @@
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H82" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>415</v>
+      </c>
+      <c r="J82" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B83" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C83" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E83" t="s">
+        <v>423</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>424</v>
+      </c>
+      <c r="H83" t="s">
+        <v>420</v>
+      </c>
+      <c r="J83" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
         <v>419</v>
       </c>
-      <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s">
-        <v>420</v>
-      </c>
-      <c r="H83" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>415</v>
-      </c>
       <c r="B84" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C84" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D84" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G84" t="s">
+        <v>429</v>
+      </c>
+      <c r="H84" t="s">
         <v>425</v>
       </c>
-      <c r="H84" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="J84" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B85" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C85" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D85" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H85" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>430</v>
+      </c>
+      <c r="J85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B86" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C86" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D86" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -5667,24 +6485,27 @@
         <v>49</v>
       </c>
       <c r="G86" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H86" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>434</v>
+      </c>
+      <c r="J86" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B87" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C87" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D87" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -5693,50 +6514,56 @@
         <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H87" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>438</v>
+      </c>
+      <c r="J87" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B88" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C88" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D88" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E88" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
       </c>
       <c r="G88" t="s">
+        <v>446</v>
+      </c>
+      <c r="H88" t="s">
         <v>443</v>
       </c>
-      <c r="H88" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="J88" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B89" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C89" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D89" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E89" t="s">
         <v>37</v>
@@ -5745,50 +6572,56 @@
         <v>13</v>
       </c>
       <c r="G89" t="s">
+        <v>451</v>
+      </c>
+      <c r="H89" t="s">
         <v>448</v>
       </c>
-      <c r="H89" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="J89" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B90" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C90" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D90" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E90" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
       </c>
       <c r="G90" t="s">
+        <v>455</v>
+      </c>
+      <c r="H90" t="s">
         <v>452</v>
       </c>
-      <c r="H90" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="J90" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B91" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C91" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D91" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -5797,24 +6630,27 @@
         <v>13</v>
       </c>
       <c r="G91" t="s">
+        <v>460</v>
+      </c>
+      <c r="H91" t="s">
         <v>457</v>
       </c>
-      <c r="H91" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="J91" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B92" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C92" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D92" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
@@ -5823,24 +6659,27 @@
         <v>13</v>
       </c>
       <c r="G92" t="s">
+        <v>465</v>
+      </c>
+      <c r="H92" t="s">
         <v>462</v>
       </c>
-      <c r="H92" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="J92" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B93" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C93" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D93" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -5849,24 +6688,27 @@
         <v>13</v>
       </c>
       <c r="G93" t="s">
+        <v>470</v>
+      </c>
+      <c r="H93" t="s">
         <v>467</v>
       </c>
-      <c r="H93" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="J93" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B94" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C94" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D94" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E94" t="s">
         <v>37</v>
@@ -5875,24 +6717,24 @@
         <v>13</v>
       </c>
       <c r="G94" t="s">
+        <v>475</v>
+      </c>
+      <c r="H94" t="s">
         <v>472</v>
       </c>
-      <c r="H94" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="95">
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C95" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D95" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -5901,24 +6743,24 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
+        <v>479</v>
+      </c>
+      <c r="H95" t="s">
         <v>476</v>
       </c>
-      <c r="H95" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="96">
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B96" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C96" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D96" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -5927,24 +6769,24 @@
         <v>13</v>
       </c>
       <c r="G96" t="s">
+        <v>484</v>
+      </c>
+      <c r="H96" t="s">
         <v>481</v>
       </c>
-      <c r="H96" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="97">
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B97" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C97" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D97" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E97" t="s">
         <v>37</v>
@@ -5953,24 +6795,24 @@
         <v>13</v>
       </c>
       <c r="G97" t="s">
+        <v>489</v>
+      </c>
+      <c r="H97" t="s">
         <v>486</v>
       </c>
-      <c r="H97" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="98">
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B98" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C98" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D98" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -5979,24 +6821,24 @@
         <v>13</v>
       </c>
       <c r="G98" t="s">
+        <v>494</v>
+      </c>
+      <c r="H98" t="s">
         <v>491</v>
       </c>
-      <c r="H98" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="99">
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D99" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E99" t="s">
         <v>12</v>
@@ -6005,76 +6847,82 @@
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" spans="1:10">
       <c r="A100" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B100" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C100" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D100" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E100" t="s">
         <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G100" t="s">
+        <v>503</v>
+      </c>
+      <c r="H100" t="s">
         <v>500</v>
       </c>
-      <c r="H100" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="J100" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" spans="1:10">
       <c r="A101" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B101" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C101" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D101" t="s">
+        <v>508</v>
+      </c>
+      <c r="E101" t="s">
+        <v>509</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>510</v>
+      </c>
+      <c r="H101" t="s">
+        <v>506</v>
+      </c>
+      <c r="J101" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E101" t="s">
+    </row>
+    <row r="102" ht="15.75" spans="1:10">
+      <c r="A102" t="s">
         <v>505</v>
       </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>506</v>
-      </c>
-      <c r="H101" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>501</v>
-      </c>
       <c r="B102" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C102" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D102" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E102" t="s">
         <v>37</v>
@@ -6083,24 +6931,27 @@
         <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H102" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>511</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B103" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C103" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D103" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E103" t="s">
         <v>37</v>
@@ -6109,24 +6960,30 @@
         <v>13</v>
       </c>
       <c r="G103" t="s">
+        <v>519</v>
+      </c>
+      <c r="H103" t="s">
+        <v>516</v>
+      </c>
+      <c r="J103" t="s">
         <v>515</v>
       </c>
-      <c r="H103" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="K103" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B104" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C104" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D104" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="E104" t="s">
         <v>37</v>
@@ -6135,24 +6992,30 @@
         <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="H104" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>521</v>
+      </c>
+      <c r="J104" t="s">
+        <v>515</v>
+      </c>
+      <c r="K104" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B105" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C105" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D105" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="E105" t="s">
         <v>37</v>
@@ -6161,76 +7024,94 @@
         <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="H105" t="s">
+        <v>525</v>
+      </c>
+      <c r="J105" t="s">
+        <v>515</v>
+      </c>
+      <c r="K105" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B106" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C106" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D106" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E106" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H106" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>529</v>
+      </c>
+      <c r="J106" t="s">
+        <v>515</v>
+      </c>
+      <c r="K106" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B107" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C107" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D107" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E107" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H107" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>533</v>
+      </c>
+      <c r="J107" t="s">
+        <v>515</v>
+      </c>
+      <c r="K107" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B108" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C108" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D108" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -6239,24 +7120,30 @@
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="H108" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>538</v>
+      </c>
+      <c r="J108" t="s">
+        <v>515</v>
+      </c>
+      <c r="K108" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B109" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C109" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D109" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="E109" t="s">
         <v>22</v>
@@ -6265,24 +7152,27 @@
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H109" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>543</v>
+      </c>
+      <c r="J109" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B110" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C110" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D110" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="E110" t="s">
         <v>22</v>
@@ -6291,24 +7181,27 @@
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="H110" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>549</v>
+      </c>
+      <c r="J110" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B111" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C111" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D111" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -6317,24 +7210,27 @@
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="H111" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>554</v>
+      </c>
+      <c r="J111" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B112" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C112" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D112" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
@@ -6343,24 +7239,27 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H112" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>559</v>
+      </c>
+      <c r="J112" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B113" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C113" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D113" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
@@ -6369,24 +7268,27 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H113" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>563</v>
+      </c>
+      <c r="J113" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B114" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C114" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D114" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -6395,50 +7297,56 @@
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H114" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>567</v>
+      </c>
+      <c r="J114" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B115" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C115" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D115" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="E115" t="s">
         <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="G115" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="H115" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>572</v>
+      </c>
+      <c r="J115" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B116" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C116" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D116" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E116" t="s">
         <v>37</v>
@@ -6447,24 +7355,27 @@
         <v>49</v>
       </c>
       <c r="G116" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="H116" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>577</v>
+      </c>
+      <c r="J116" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B117" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C117" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D117" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E117" t="s">
         <v>37</v>
@@ -6473,24 +7384,27 @@
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="H117" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>582</v>
+      </c>
+      <c r="J117" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B118" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C118" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D118" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="E118" t="s">
         <v>37</v>
@@ -6499,50 +7413,56 @@
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H118" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>587</v>
+      </c>
+      <c r="J118" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B119" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C119" t="s">
+        <v>592</v>
+      </c>
+      <c r="D119" t="s">
+        <v>593</v>
+      </c>
+      <c r="E119" t="s">
+        <v>594</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>595</v>
+      </c>
+      <c r="H119" t="s">
+        <v>591</v>
+      </c>
+      <c r="J119" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
         <v>586</v>
       </c>
-      <c r="D119" t="s">
-        <v>587</v>
-      </c>
-      <c r="E119" t="s">
-        <v>588</v>
-      </c>
-      <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s">
-        <v>589</v>
-      </c>
-      <c r="H119" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>580</v>
-      </c>
       <c r="B120" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C120" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D120" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
@@ -6551,24 +7471,27 @@
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="H120" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>596</v>
+      </c>
+      <c r="J120" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B121" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C121" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D121" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -6577,102 +7500,114 @@
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="H121" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>600</v>
+      </c>
+      <c r="J121" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B122" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C122" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D122" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E122" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F122" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="G122" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="H122" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>604</v>
+      </c>
+      <c r="J122" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B123" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C123" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D123" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="E123" t="s">
         <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G123" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="H123" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>611</v>
+      </c>
+      <c r="J123" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B124" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C124" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D124" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G124" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="H124" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>616</v>
+      </c>
+      <c r="J124" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D125" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="E125" t="s">
         <v>12</v>
@@ -6681,24 +7616,27 @@
         <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126">
+      <c r="J125" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B126" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C126" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D126" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="E126" t="s">
         <v>12</v>
@@ -6707,24 +7645,27 @@
         <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="H126" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>624</v>
+      </c>
+      <c r="J126" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B127" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C127" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D127" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="E127" t="s">
         <v>37</v>
@@ -6733,24 +7674,27 @@
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="H127" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>629</v>
+      </c>
+      <c r="J127" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B128" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C128" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D128" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -6759,24 +7703,27 @@
         <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="H128" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>634</v>
+      </c>
+      <c r="J128" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B129" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C129" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D129" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="E129" t="s">
         <v>12</v>
@@ -6785,24 +7732,27 @@
         <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H129" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>638</v>
+      </c>
+      <c r="J129" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B130" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C130" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="D130" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="E130" t="s">
         <v>12</v>
@@ -6811,24 +7761,27 @@
         <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="H130" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>643</v>
+      </c>
+      <c r="J130" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B131" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C131" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D131" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="E131" t="s">
         <v>37</v>
@@ -6837,24 +7790,27 @@
         <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="H131" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>648</v>
+      </c>
+      <c r="J131" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B132" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C132" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D132" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="E132" t="s">
         <v>22</v>
@@ -6863,76 +7819,85 @@
         <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="H132" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>653</v>
+      </c>
+      <c r="J132" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B133" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C133" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D133" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="E133" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="H133" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>658</v>
+      </c>
+      <c r="J133" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B134" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C134" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="D134" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="E134" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="H134" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>663</v>
+      </c>
+      <c r="J134" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B135" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C135" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D135" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -6941,50 +7906,56 @@
         <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="H135" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>667</v>
+      </c>
+      <c r="J135" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B136" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C136" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D136" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E136" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="F136" t="s">
         <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="H136" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>671</v>
+      </c>
+      <c r="J136" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B137" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C137" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D137" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="E137" t="s">
         <v>12</v>
@@ -6993,50 +7964,56 @@
         <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="H137" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>677</v>
+      </c>
+      <c r="J137" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B138" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C138" t="s">
+        <v>682</v>
+      </c>
+      <c r="D138" t="s">
+        <v>683</v>
+      </c>
+      <c r="E138" t="s">
+        <v>684</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>685</v>
+      </c>
+      <c r="H138" t="s">
+        <v>681</v>
+      </c>
+      <c r="J138" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
         <v>676</v>
       </c>
-      <c r="D138" t="s">
-        <v>677</v>
-      </c>
-      <c r="E138" t="s">
-        <v>678</v>
-      </c>
-      <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s">
-        <v>679</v>
-      </c>
-      <c r="H138" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>670</v>
-      </c>
       <c r="B139" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C139" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="D139" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="E139" t="s">
         <v>37</v>
@@ -7045,50 +8022,56 @@
         <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="H139" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>686</v>
+      </c>
+      <c r="J139" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B140" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C140" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D140" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="E140" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="F140" t="s">
         <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="H140" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>690</v>
+      </c>
+      <c r="J140" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B141" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C141" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="D141" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="E141" t="s">
         <v>12</v>
@@ -7097,50 +8080,56 @@
         <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="H141" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>695</v>
+      </c>
+      <c r="J141" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B142" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C142" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="D142" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="E142" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F142" t="s">
         <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="H142" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>699</v>
+      </c>
+      <c r="J142" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B143" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C143" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D143" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E143" t="s">
         <v>12</v>
@@ -7149,24 +8138,27 @@
         <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="H143" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>703</v>
+      </c>
+      <c r="J143" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B144" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C144" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D144" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="E144" t="s">
         <v>37</v>
@@ -7175,24 +8167,27 @@
         <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="H144" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>707</v>
+      </c>
+      <c r="J144" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B145" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C145" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D145" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="E145" t="s">
         <v>12</v>
@@ -7201,50 +8196,56 @@
         <v>49</v>
       </c>
       <c r="G145" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="H145" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>711</v>
+      </c>
+      <c r="J145" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B146" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="C146" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="D146" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="E146" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F146" t="s">
         <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="H146" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>716</v>
+      </c>
+      <c r="J146" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="B147" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C147" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D147" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="E147" t="s">
         <v>37</v>
@@ -7253,21 +8254,24 @@
         <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H147" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>722</v>
+      </c>
+      <c r="J147" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
@@ -7279,24 +8283,27 @@
         <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="H148" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="149">
+      <c r="J148" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="B149" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C149" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D149" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="E149" t="s">
         <v>37</v>
@@ -7305,24 +8312,27 @@
         <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="H149" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>730</v>
+      </c>
+      <c r="J149" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="B150" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C150" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="D150" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="E150" t="s">
         <v>12</v>
@@ -7331,50 +8341,56 @@
         <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="H150" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>735</v>
+      </c>
+      <c r="J150" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B151" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="C151" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="D151" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="E151" t="s">
         <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G151" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="H151" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>740</v>
+      </c>
+      <c r="J151" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B152" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="C152" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="D152" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="E152" t="s">
         <v>37</v>
@@ -7383,50 +8399,56 @@
         <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H152" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>744</v>
+      </c>
+      <c r="J152" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B153" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="C153" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="D153" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E153" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F153" t="s">
         <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="H153" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>748</v>
+      </c>
+      <c r="J153" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B154" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="C154" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="D154" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="E154" t="s">
         <v>37</v>
@@ -7435,24 +8457,27 @@
         <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="H154" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>752</v>
+      </c>
+      <c r="J154" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B155" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="C155" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="D155" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="E155" t="s">
         <v>37</v>
@@ -7461,24 +8486,27 @@
         <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="H155" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>756</v>
+      </c>
+      <c r="J155" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="B156" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C156" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="D156" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -7487,24 +8515,27 @@
         <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="H156" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>761</v>
+      </c>
+      <c r="J156" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="B157" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C157" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D157" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="E157" t="s">
         <v>12</v>
@@ -7513,24 +8544,27 @@
         <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="H157" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>766</v>
+      </c>
+      <c r="J157" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B158" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C158" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="D158" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="E158" t="s">
         <v>12</v>
@@ -7539,24 +8573,27 @@
         <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="H158" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>771</v>
+      </c>
+      <c r="J158" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B159" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C159" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D159" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="E159" t="s">
         <v>22</v>
@@ -7565,24 +8602,27 @@
         <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="H159" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>775</v>
+      </c>
+      <c r="J159" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B160" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="C160" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="D160" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="E160" t="s">
         <v>12</v>
@@ -7591,24 +8631,27 @@
         <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="H160" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>779</v>
+      </c>
+      <c r="J160" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B161" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C161" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D161" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="E161" t="s">
         <v>12</v>
@@ -7617,24 +8660,27 @@
         <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="H161" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>783</v>
+      </c>
+      <c r="J161" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B162" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C162" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D162" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="E162" t="s">
         <v>12</v>
@@ -7643,24 +8689,27 @@
         <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="H162" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>787</v>
+      </c>
+      <c r="J162" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B163" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C163" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="D163" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -7669,24 +8718,27 @@
         <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="H163" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>791</v>
+      </c>
+      <c r="J163" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B164" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C164" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D164" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E164" t="s">
         <v>12</v>
@@ -7695,102 +8747,114 @@
         <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="H164" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>795</v>
+      </c>
+      <c r="J164" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="B165" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C165" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="D165" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="E165" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="H165" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>800</v>
+      </c>
+      <c r="J165" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
+        <v>805</v>
+      </c>
+      <c r="B166" t="s">
+        <v>806</v>
+      </c>
+      <c r="C166" t="s">
+        <v>807</v>
+      </c>
+      <c r="D166" t="s">
+        <v>808</v>
+      </c>
+      <c r="E166" t="s">
+        <v>809</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
+        <v>810</v>
+      </c>
+      <c r="H166" t="s">
+        <v>806</v>
+      </c>
+      <c r="J166" t="s">
         <v>799</v>
       </c>
-      <c r="B166" t="s">
-        <v>800</v>
-      </c>
-      <c r="C166" t="s">
-        <v>801</v>
-      </c>
-      <c r="D166" t="s">
-        <v>802</v>
-      </c>
-      <c r="E166" t="s">
-        <v>803</v>
-      </c>
-      <c r="F166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s">
-        <v>804</v>
-      </c>
-      <c r="H166" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="167">
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="B167" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C167" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="D167" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="E167" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="H167" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>812</v>
+      </c>
+      <c r="J167" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="B168" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C168" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="D168" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="E168" t="s">
         <v>37</v>
@@ -7799,50 +8863,56 @@
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="H168" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>818</v>
+      </c>
+      <c r="J168" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="B169" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="C169" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D169" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="E169" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="F169" t="s">
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="H169" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>822</v>
+      </c>
+      <c r="J169" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B170" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C170" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="D170" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="E170" t="s">
         <v>37</v>
@@ -7851,24 +8921,27 @@
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="H170" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>828</v>
+      </c>
+      <c r="J170" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B171" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C171" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="D171" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="E171" t="s">
         <v>12</v>
@@ -7877,24 +8950,27 @@
         <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="H171" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>833</v>
+      </c>
+      <c r="J171" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="B172" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="C172" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="D172" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="E172" t="s">
         <v>37</v>
@@ -7903,50 +8979,56 @@
         <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="H172" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>838</v>
+      </c>
+      <c r="J172" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="B173" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C173" t="s">
+        <v>843</v>
+      </c>
+      <c r="D173" t="s">
+        <v>844</v>
+      </c>
+      <c r="E173" t="s">
+        <v>845</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>846</v>
+      </c>
+      <c r="H173" t="s">
         <v>837</v>
       </c>
-      <c r="D173" t="s">
-        <v>838</v>
-      </c>
-      <c r="E173" t="s">
-        <v>839</v>
-      </c>
-      <c r="F173" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" t="s">
-        <v>840</v>
-      </c>
-      <c r="H173" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="174">
+      <c r="J173" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="B174" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C174" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D174" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E174" t="s">
         <v>37</v>
@@ -7955,24 +9037,27 @@
         <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="H174" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>847</v>
+      </c>
+      <c r="J174" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="B175" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C175" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="D175" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="E175" t="s">
         <v>12</v>
@@ -7981,76 +9066,85 @@
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="H175" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>852</v>
+      </c>
+      <c r="J175" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="B176" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="C176" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="D176" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="E176" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="F176" t="s">
         <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="H176" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>858</v>
+      </c>
+      <c r="J176" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="B177" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="C177" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="D177" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="G177" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="H177" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>864</v>
+      </c>
+      <c r="J177" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="B178" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="C178" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="D178" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="E178" t="s">
         <v>37</v>
@@ -8059,50 +9153,50 @@
         <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="H178" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="B179" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="C179" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="D179" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="E179" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="F179" t="s">
         <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="H179" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="B180" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="C180" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="D180" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="E180" t="s">
         <v>12</v>
@@ -8111,24 +9205,24 @@
         <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="H180" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="B181" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="C181" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="D181" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="E181" t="s">
         <v>12</v>
@@ -8137,24 +9231,24 @@
         <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="H181" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="B182" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C182" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="D182" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="E182" t="s">
         <v>22</v>
@@ -8163,24 +9257,24 @@
         <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="H182" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="B183" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="C183" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="D183" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="E183" t="s">
         <v>37</v>
@@ -8189,50 +9283,50 @@
         <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="H183" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="B184" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="C184" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="D184" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="E184" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="F184" t="s">
         <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="H184" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="B185" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="C185" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="D185" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="E185" t="s">
         <v>12</v>
@@ -8241,76 +9335,85 @@
         <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="H185" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>905</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B186" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="C186" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="D186" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="E186" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="F186" t="s">
         <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="H186" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>911</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B187" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="C187" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="D187" t="s">
+        <v>918</v>
+      </c>
+      <c r="E187" t="s">
+        <v>919</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s">
+        <v>920</v>
+      </c>
+      <c r="H187" t="s">
+        <v>916</v>
+      </c>
+      <c r="J187" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="E187" t="s">
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
         <v>910</v>
       </c>
-      <c r="F187" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" t="s">
-        <v>911</v>
-      </c>
-      <c r="H187" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>901</v>
-      </c>
       <c r="B188" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="C188" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="D188" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="E188" t="s">
         <v>12</v>
@@ -8319,50 +9422,56 @@
         <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="H188" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>921</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B189" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="C189" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="D189" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="E189" t="s">
         <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G189" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="H189" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>925</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B190" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="C190" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="D190" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
@@ -8371,128 +9480,143 @@
         <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="H190" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>929</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B191" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="C191" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="D191" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G191" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H191" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>933</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B192" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="C192" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="D192" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="E192" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="F192" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G192" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="H192" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>937</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B193" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="C193" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="D193" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="E193" t="s">
         <v>37</v>
       </c>
       <c r="F193" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G193" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="H193" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>942</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B194" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="C194" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="D194" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="E194" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="F194" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G194" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="H194" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>946</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="B195" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="C195" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="D195" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="E195" t="s">
         <v>37</v>
@@ -8501,102 +9625,114 @@
         <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="H195" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>951</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="B196" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="C196" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="D196" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="E196" t="s">
         <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G196" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="H196" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>955</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="B197" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="C197" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="D197" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="E197" t="s">
         <v>37</v>
       </c>
       <c r="F197" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G197" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="H197" t="s">
+        <v>959</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>941</v>
-      </c>
       <c r="B198" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="C198" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="D198" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="E198" t="s">
         <v>37</v>
       </c>
       <c r="F198" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G198" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="H198" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>963</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="B199" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="C199" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="D199" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="E199" t="s">
         <v>37</v>
@@ -8605,24 +9741,27 @@
         <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="H199" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>967</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="B200" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="C200" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="D200" t="s">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="E200" t="s">
         <v>37</v>
@@ -8631,24 +9770,24 @@
         <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="H200" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="B201" t="s">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="C201" t="s">
-        <v>968</v>
+        <v>977</v>
       </c>
       <c r="D201" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="E201" t="s">
         <v>12</v>
@@ -8657,24 +9796,24 @@
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="H201" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="B202" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="C202" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="D202" t="s">
-        <v>973</v>
+        <v>982</v>
       </c>
       <c r="E202" t="s">
         <v>37</v>
@@ -8683,24 +9822,24 @@
         <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>974</v>
+        <v>983</v>
       </c>
       <c r="H202" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>975</v>
+        <v>984</v>
       </c>
       <c r="B203" t="s">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="C203" t="s">
-        <v>977</v>
+        <v>986</v>
       </c>
       <c r="D203" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="E203" t="s">
         <v>12</v>
@@ -8709,50 +9848,50 @@
         <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
       <c r="H203" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="B204" t="s">
-        <v>981</v>
+        <v>990</v>
       </c>
       <c r="C204" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="D204" t="s">
-        <v>983</v>
+        <v>992</v>
       </c>
       <c r="E204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F204" t="s">
         <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="H204" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="B205" t="s">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="C205" t="s">
-        <v>987</v>
+        <v>996</v>
       </c>
       <c r="D205" t="s">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -8761,24 +9900,24 @@
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>989</v>
+        <v>998</v>
       </c>
       <c r="H205" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="B206" t="s">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="C206" t="s">
-        <v>992</v>
+        <v>1001</v>
       </c>
       <c r="D206" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="E206" t="s">
         <v>12</v>
@@ -8787,50 +9926,50 @@
         <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="H206" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="B207" t="s">
-        <v>996</v>
+        <v>1005</v>
       </c>
       <c r="C207" t="s">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="D207" t="s">
-        <v>998</v>
+        <v>1007</v>
       </c>
       <c r="E207" t="s">
-        <v>999</v>
+        <v>1008</v>
       </c>
       <c r="F207" t="s">
         <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="H207" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B208" t="s">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="C208" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="D208" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="E208" t="s">
         <v>12</v>
@@ -8839,24 +9978,24 @@
         <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="H208" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="B209" t="s">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="C209" t="s">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="D209" t="s">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="E209" t="s">
         <v>37</v>
@@ -8865,76 +10004,76 @@
         <v>49</v>
       </c>
       <c r="G209" t="s">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="H209" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B210" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="C210" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="D210" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="E210" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="H210" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="B211" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="C211" t="s">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="D211" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G211" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="H211" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="B212" t="s">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="C212" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="D212" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="E212" t="s">
         <v>37</v>
@@ -8943,24 +10082,27 @@
         <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="H212" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>1031</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="B213" t="s">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="C213" t="s">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="D213" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="E213" t="s">
         <v>37</v>
@@ -8969,24 +10111,27 @@
         <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="H213" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>1035</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="B214" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
       <c r="C214" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="D214" t="s">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="E214" t="s">
         <v>37</v>
@@ -8995,24 +10140,27 @@
         <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="H214" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J214" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="B215" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="C215" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="D215" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="E215" t="s">
         <v>12</v>
@@ -9021,12 +10169,17 @@
         <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>1037</v>
+        <v>1046</v>
       </c>
       <c r="H215" t="s">
-        <v>1034</v>
+        <v>1043</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jenkinsProjects/people1728464507838.xlsx
+++ b/jenkinsProjects/people1728464507838.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1065">
   <si>
     <t>product</t>
   </si>
@@ -74,6 +74,38 @@
     <t>https://jenkins.osinfra.cn/job/annual-summary/job/mindspore-newyear-frontend/17/</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年终上</t>
+    </r>
+  </si>
+  <si>
     <t>bless-server</t>
   </si>
   <si>
@@ -113,6 +145,12 @@
     <t>https://jenkins.osinfra.cn/job/annual-summary/job/openlookeng-newyear-frontend/12/</t>
   </si>
   <si>
+    <t>官网</t>
+  </si>
+  <si>
+    <t>openlookeng</t>
+  </si>
+  <si>
     <t>auto_service_deploy</t>
   </si>
   <si>
@@ -215,6 +253,20 @@
     <t>https://jenkins.osinfra.cn/job/cla-prod/job/infra-cla-backend/55/</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">cla </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社区共用服务</t>
+    </r>
+  </si>
+  <si>
     <t>app-cla-stat</t>
   </si>
   <si>
@@ -254,6 +306,9 @@
     <t>https://jenkins.osinfra.cn/job/cloudsca/job/cloudsca-analysis/378/</t>
   </si>
   <si>
+    <t>majun</t>
+  </si>
+  <si>
     <t>community-metadata-pipeline</t>
   </si>
   <si>
@@ -332,7 +387,18 @@
     <t>https://jenkins.osinfra.cn/job/easysoftware-prod/job/easysoftware-prod-cronjob-autoupgrade/4/</t>
   </si>
   <si>
-    <t>easysoftware</t>
+    <r>
+      <t xml:space="preserve">easysoftware </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件市场</t>
+    </r>
   </si>
   <si>
     <t>EasySoftwareInput</t>
@@ -431,6 +497,9 @@
     <t>https://jenkins.osinfra.cn/job/exim4_build/16/</t>
   </si>
   <si>
+    <t>mailman</t>
+  </si>
+  <si>
     <t>foundation-model-server</t>
   </si>
   <si>
@@ -458,6 +527,38 @@
     <t>https://jenkins.osinfra.cn/job/gitee-v8-token/job/gitee-v8-token-production-environment/4/</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">gitee-v8-token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对接机器人服务的access使用</t>
+    </r>
+  </si>
+  <si>
     <t>invite-enterprise-members</t>
   </si>
   <si>
@@ -563,6 +664,12 @@
     <t>https://jenkins.osinfra.cn/job/infra-cve-manager/job/infra-cve-manager-prod/15/</t>
   </si>
   <si>
+    <t>基础设施自己的扫描服务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infra </t>
+  </si>
+  <si>
     <t>infra-landscape-publish</t>
   </si>
   <si>
@@ -623,6 +730,9 @@
     <t>https://jenkins.osinfra.cn/job/ingress-default-backend-image/4/</t>
   </si>
   <si>
+    <t>infra ops</t>
+  </si>
+  <si>
     <t>jenkins-bak</t>
   </si>
   <si>
@@ -713,9 +823,6 @@
     <t>https://jenkins.osinfra.cn/job/luweijun/job/openeuler-docker-images/51/</t>
   </si>
   <si>
-    <t>mailman</t>
-  </si>
-  <si>
     <t>mailman » publish-core-utils #11</t>
   </si>
   <si>
@@ -788,6 +895,20 @@
     <t>https://jenkins.osinfra.cn/job/meetingserver-image-building/296/</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">meetingserver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会议服务</t>
+    </r>
+  </si>
+  <si>
     <t>meetingserver-meeting-platform</t>
   </si>
   <si>
@@ -1304,6 +1425,9 @@
     <t>https://jenkins.osinfra.cn/job/mindspore-prod/job/mindspore-prod-doc-search/236/</t>
   </si>
   <si>
+    <t>搜索</t>
+  </si>
+  <si>
     <t>mindspore-portal-api</t>
   </si>
   <si>
@@ -1355,6 +1479,29 @@
     <t>https://jenkins.osinfra.cn/job/mindspore-prod/job/mindspore-prod-xihe-docs/42/</t>
   </si>
   <si>
+    <r>
+      <t>xihe(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昇思大模型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>mindspore-repo-post-verification</t>
   </si>
   <si>
@@ -1514,18 +1661,35 @@
     <t>https://jenkins.osinfra.cn/job/om-collection-image-build/3/</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">omdata </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字运营平台</t>
+    </r>
+  </si>
+  <si>
     <t>om-data-ci</t>
   </si>
   <si>
     <t>om-data-ci #5</t>
   </si>
   <si>
-    <t>https://gitee.com/opensourceway/om-data/</t>
+    <t>https://gitee.com/opensourceway/om-data.git</t>
   </si>
   <si>
     <t>https://jenkins.osinfra.cn/job/om-data-ci/5/</t>
   </si>
   <si>
+    <t>om-data</t>
+  </si>
+  <si>
     <t>om-data-datastat-server</t>
   </si>
   <si>
@@ -1541,27 +1705,27 @@
     <t>https://jenkins.osinfra.cn/job/om-data-datastat-server/job/om-data-om-webserver-ds-image-build/107/</t>
   </si>
   <si>
+    <t>om-data-webserver</t>
+  </si>
+  <si>
+    <t>om-webserver</t>
+  </si>
+  <si>
+    <t>om-data-webserver » om-data-webserver-CI #386</t>
+  </si>
+  <si>
+    <t>https://gitee.com/opensourceway/om-webserver.git</t>
+  </si>
+  <si>
+    <t>pull/772/MERGE</t>
+  </si>
+  <si>
+    <t>https://jenkins.osinfra.cn/job/om-data-webserver/job/om-data-webserver-CI/386/</t>
+  </si>
+  <si>
     <t>账号服务</t>
   </si>
   <si>
-    <t>om-data-webserver</t>
-  </si>
-  <si>
-    <t>om-webserver</t>
-  </si>
-  <si>
-    <t>om-data-webserver » om-data-webserver-CI #386</t>
-  </si>
-  <si>
-    <t>https://gitee.com/opensourceway/om-webserver.git</t>
-  </si>
-  <si>
-    <t>pull/772/MERGE</t>
-  </si>
-  <si>
-    <t>https://jenkins.osinfra.cn/job/om-data-webserver/job/om-data-webserver-CI/386/</t>
-  </si>
-  <si>
     <t>oneid-server</t>
   </si>
   <si>
@@ -1589,6 +1753,20 @@
     <t>https://jenkins.osinfra.cn/job/omni/job/omni-frontend/3/</t>
   </si>
   <si>
+    <r>
+      <t>omni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建平台社区</t>
+    </r>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -1760,6 +1938,9 @@
     <t>https://jenkins.osinfra.cn/job/openeuler-compatibility/job/openeuler-compatibility-prod/job/openeuler-compatibility-prod-backend/21/</t>
   </si>
   <si>
+    <t>兼容性平台</t>
+  </si>
+  <si>
     <t>certification-website</t>
   </si>
   <si>
@@ -1931,9 +2112,6 @@
     <t>openeuler-doc-search</t>
   </si>
   <si>
-    <t>$REPOSITOPY</t>
-  </si>
-  <si>
     <t>openeuler-doc-search » openeuler-doc-search » openeuler-doc-search-daily-update #93</t>
   </si>
   <si>
@@ -2597,9 +2775,6 @@
     <t>https://jenkins.osinfra.cn/job/openlookeng-prod/job/openlookeng-prod-website-bugs/17/</t>
   </si>
   <si>
-    <t>openlookeng</t>
-  </si>
-  <si>
     <t>openlookeng-website-doc-sync-by-tag</t>
   </si>
   <si>
@@ -2618,6 +2793,15 @@
     <t>https://jenkins.osinfra.cn/job/openlookeng-website-doc-sync-by-tag/22/</t>
   </si>
   <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>https://gitee.com/openlookeng/website-v2.git</t>
+  </si>
+  <si>
+    <t>https://jenkins.osinfra.cn/view/openLooKeng/job/openlookeng-prod/job/openlookeng-prod-website-frontend/lastSuccessfulBuild/parameters/</t>
+  </si>
+  <si>
     <t>openmind-api-autotest</t>
   </si>
   <si>
@@ -3087,6 +3271,9 @@
   </si>
   <si>
     <t>https://jenkins.osinfra.cn/job/ubmc-prod/job/ubmc-prod-website/13/</t>
+  </si>
+  <si>
+    <t>openubmc</t>
   </si>
   <si>
     <t>Unified-Vulnerability-Platform</t>
@@ -3188,6 +3375,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3204,22 +3407,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3654,28 +3841,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3799,10 +3986,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4122,17 +4312,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K215"/>
+  <dimension ref="A1:L216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="M108" sqref="M108"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B156" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="39.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="79.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="56.5714285714286" customWidth="1"/>
     <col min="7" max="7" width="81.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="25.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="20.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="22.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4161,7 +4356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4186,19 +4381,22 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -4207,50 +4405,56 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -4259,128 +4463,137 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
         <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -4389,102 +4602,111 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
         <v>55</v>
       </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -4493,76 +4715,82 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -4571,24 +4799,27 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -4597,224 +4828,224 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" t="s">
         <v>101</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="H20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" t="s">
-        <v>101</v>
+        <v>112</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" t="s">
-        <v>101</v>
+        <v>116</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
-      </c>
-      <c r="J23" t="s">
-        <v>101</v>
+        <v>120</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
       </c>
-      <c r="J24" t="s">
-        <v>101</v>
+      <c r="J24" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -4823,154 +5054,166 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
-      <c r="G28" t="s">
-        <v>142</v>
+      <c r="G28" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
         <v>144</v>
       </c>
-      <c r="D29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>138</v>
-      </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -4979,24 +5222,24 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -5005,102 +5248,108 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" t="s">
-        <v>177</v>
+        <v>183</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="H35" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J35" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H36" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -5109,50 +5358,50 @@
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H37" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -5161,76 +5410,85 @@
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H39" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="J39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="J40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>218</v>
+      </c>
+      <c r="H41" t="s">
+        <v>214</v>
+      </c>
+      <c r="J41" t="s">
         <v>207</v>
       </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -5239,102 +5497,114 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="J42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="J43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="J44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D45" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="H45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="J45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -5343,50 +5613,56 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="J46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H47" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="J47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -5395,24 +5671,27 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H48" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="J48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -5421,192 +5700,201 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H49" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C50" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F50" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G50" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B51" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="H51" t="s">
-        <v>254</v>
+        <v>264</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C52" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G52" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H52" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="J52" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G53" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="J53" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B54" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C54" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D54" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H54" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="J54" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" t="s">
+        <v>285</v>
+      </c>
+      <c r="E55" t="s">
+        <v>286</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>287</v>
+      </c>
+      <c r="H55" t="s">
+        <v>283</v>
+      </c>
+      <c r="J55" t="s">
         <v>274</v>
-      </c>
-      <c r="D55" t="s">
-        <v>275</v>
-      </c>
-      <c r="E55" t="s">
-        <v>276</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>277</v>
-      </c>
-      <c r="H55" t="s">
-        <v>273</v>
-      </c>
-      <c r="J55" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C56" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D56" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -5615,723 +5903,723 @@
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="H56" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="J56" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C57" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D57" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G57" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H57" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="J57" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C58" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D58" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H58" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="J58" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D59" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G59" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H59" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J59" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B60" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D60" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="H60" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="J60" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C61" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D61" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E61" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="F61" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G61" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="H61" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="J61" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B62" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C62" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D62" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E62" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F62" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G62" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H62" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="J62" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C63" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D63" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F63" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G63" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="H63" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="J63" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B64" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C64" t="s">
+        <v>331</v>
+      </c>
+      <c r="D64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E64" t="s">
         <v>321</v>
       </c>
-      <c r="D64" t="s">
-        <v>322</v>
-      </c>
-      <c r="E64" t="s">
-        <v>311</v>
-      </c>
       <c r="F64" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="G64" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="H64" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="J64" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B65" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C65" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="D65" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E65" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F65" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G65" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="H65" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="J65" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C66" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D66" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E66" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F66" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G66" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H66" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="J66" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C67" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D67" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="E67" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F67" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G67" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H67" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="J67" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B68" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C68" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D68" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E68" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F68" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G68" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="H68" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="J68" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C69" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D69" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E69" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F69" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G69" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="H69" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="J69" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B70" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C70" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D70" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E70" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F70" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G70" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="H70" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="J70" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C71" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D71" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E71" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F71" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G71" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="H71" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="J71" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B72" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C72" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D72" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E72" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F72" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G72" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="H72" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="J72" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B73" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C73" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D73" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G73" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="H73" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="J73" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B74" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C74" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D74" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E74" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F74" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G74" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="H74" t="s">
-        <v>370</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B75" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C75" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D75" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="E75" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F75" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G75" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="H75" t="s">
-        <v>377</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>376</v>
+        <v>387</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B76" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C76" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D76" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E76" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F76" t="s">
+        <v>396</v>
+      </c>
+      <c r="G76" t="s">
+        <v>397</v>
+      </c>
+      <c r="H76" t="s">
+        <v>392</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="G76" t="s">
-        <v>387</v>
-      </c>
-      <c r="H76" t="s">
-        <v>382</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B77" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C77" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D77" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="E77" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="H77" t="s">
-        <v>388</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>376</v>
+        <v>398</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B78" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C78" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D78" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="E78" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F78" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G78" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H78" t="s">
-        <v>393</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>376</v>
+        <v>403</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B79" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C79" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D79" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E79" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F79" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G79" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H79" t="s">
-        <v>398</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>376</v>
+        <v>408</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B80" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C80" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D80" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="E80" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="H80" t="s">
-        <v>403</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>376</v>
+        <v>413</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B81" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C81" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D81" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -6340,27 +6628,27 @@
         <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="H81" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="J81" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B82" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C82" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D82" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
@@ -6369,143 +6657,149 @@
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="H82" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="J82" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B83" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C83" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D83" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E83" t="s">
+        <v>433</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>434</v>
+      </c>
+      <c r="H83" t="s">
+        <v>430</v>
+      </c>
+      <c r="J83" t="s">
         <v>423</v>
       </c>
-      <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s">
-        <v>424</v>
-      </c>
-      <c r="H83" t="s">
-        <v>420</v>
-      </c>
-      <c r="J83" t="s">
-        <v>413</v>
+      <c r="K83" s="4" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C84" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D84" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="G84" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="H84" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="J84" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B85" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C85" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="D85" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="E85" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="H85" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="J85" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B86" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C86" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D86" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G86" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="H86" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="J86" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>423</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B87" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C87" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="D87" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -6514,114 +6808,117 @@
         <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="H87" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="J87" t="s">
-        <v>413</v>
+        <v>423</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B88" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C88" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D88" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="E88" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="H88" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="J88" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B89" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C89" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="D89" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="H89" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="J89" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B90" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="C90" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="D90" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E90" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H90" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="J90" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B91" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C91" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D91" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -6630,27 +6927,27 @@
         <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="H91" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="J91" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B92" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C92" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="D92" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
@@ -6659,27 +6956,27 @@
         <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="H92" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="J92" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B93" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C93" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D93" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -6688,53 +6985,56 @@
         <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="H93" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="J93" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B94" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C94" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D94" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="E94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>487</v>
+      </c>
+      <c r="H94" t="s">
+        <v>484</v>
+      </c>
+      <c r="J94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
         <v>37</v>
       </c>
-      <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s">
-        <v>475</v>
-      </c>
-      <c r="H94" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>34</v>
-      </c>
       <c r="B95" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="C95" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="D95" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -6743,24 +7043,27 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H95" t="s">
-        <v>476</v>
+        <v>488</v>
+      </c>
+      <c r="J95" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="B96" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C96" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D96" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -6769,50 +7072,53 @@
         <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="H96" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B97" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="C97" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D97" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="H97" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>498</v>
+      </c>
+      <c r="J97" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B98" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C98" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="D98" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -6821,24 +7127,27 @@
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="H98" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>503</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>496</v>
-      </c>
-      <c r="D99" t="s">
-        <v>497</v>
+        <v>509</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="E99" t="s">
         <v>12</v>
@@ -6846,272 +7155,281 @@
       <c r="F99" t="s">
         <v>13</v>
       </c>
-      <c r="G99" t="s">
-        <v>498</v>
+      <c r="G99" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" spans="1:10">
+        <v>512</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B100" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="C100" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="D100" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G100" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="H100" t="s">
-        <v>500</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" spans="1:10">
+        <v>514</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" spans="1:11">
       <c r="A101" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="B101" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C101" t="s">
+        <v>520</v>
+      </c>
+      <c r="D101" t="s">
+        <v>521</v>
+      </c>
+      <c r="E101" t="s">
+        <v>522</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>523</v>
+      </c>
+      <c r="H101" t="s">
+        <v>519</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D101" t="s">
-        <v>508</v>
-      </c>
-      <c r="E101" t="s">
-        <v>509</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>510</v>
-      </c>
-      <c r="H101" t="s">
-        <v>506</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" spans="1:10">
+    </row>
+    <row r="102" ht="15.75" spans="1:11">
       <c r="A102" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="B102" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="C102" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="D102" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="H102" t="s">
-        <v>511</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>504</v>
+        <v>525</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="B103" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="C103" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D103" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="H103" t="s">
-        <v>516</v>
-      </c>
-      <c r="J103" t="s">
-        <v>515</v>
+        <v>530</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="K103" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="B104" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="C104" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D104" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="H104" t="s">
-        <v>521</v>
-      </c>
-      <c r="J104" t="s">
-        <v>515</v>
+        <v>536</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="K104" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="B105" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="C105" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="D105" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="H105" t="s">
-        <v>525</v>
-      </c>
-      <c r="J105" t="s">
-        <v>515</v>
+        <v>540</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="K105" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="B106" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="C106" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="D106" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="E106" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="H106" t="s">
-        <v>529</v>
-      </c>
-      <c r="J106" t="s">
-        <v>515</v>
+        <v>544</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="K106" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="B107" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="C107" t="s">
+        <v>549</v>
+      </c>
+      <c r="D107" t="s">
+        <v>550</v>
+      </c>
+      <c r="E107" t="s">
+        <v>551</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>552</v>
+      </c>
+      <c r="H107" t="s">
+        <v>548</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D107" t="s">
+      <c r="K107" t="s">
         <v>535</v>
-      </c>
-      <c r="E107" t="s">
-        <v>536</v>
-      </c>
-      <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s">
-        <v>537</v>
-      </c>
-      <c r="H107" t="s">
-        <v>533</v>
-      </c>
-      <c r="J107" t="s">
-        <v>515</v>
-      </c>
-      <c r="K107" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="B108" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="C108" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="D108" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -7120,88 +7438,88 @@
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="H108" t="s">
-        <v>538</v>
-      </c>
-      <c r="J108" t="s">
-        <v>515</v>
+        <v>553</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="K108" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="B109" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="C109" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="D109" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="H109" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="J109" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="B110" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="C110" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="D110" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="H110" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="J110" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="B111" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="C111" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D111" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -7210,27 +7528,27 @@
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="H111" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="J111" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="B112" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C112" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D112" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
@@ -7239,27 +7557,27 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
+        <v>577</v>
+      </c>
+      <c r="H112" t="s">
+        <v>574</v>
+      </c>
+      <c r="J112" t="s">
         <v>562</v>
-      </c>
-      <c r="H112" t="s">
-        <v>559</v>
-      </c>
-      <c r="J112" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="B113" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="C113" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="D113" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
@@ -7268,27 +7586,27 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="H113" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="J113" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="B114" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="C114" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="D114" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -7297,172 +7615,178 @@
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="H114" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="J114" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="B115" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="C115" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="D115" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="G115" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="H115" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="J115" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+        <v>562</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="B116" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="C116" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="D116" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G116" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="H116" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="J116" t="s">
-        <v>547</v>
+        <v>562</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="B117" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="C117" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="D117" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="H117" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="J117" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="B118" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="C118" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="D118" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="H118" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="J118" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="B119" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="C119" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="D119" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="E119" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="H119" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="J119" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="B120" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="C120" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="D120" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
@@ -7471,27 +7795,27 @@
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="H120" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="J120" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="B121" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="C121" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="D121" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -7500,114 +7824,114 @@
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="H121" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="J121" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="B122" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="C122" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D122" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="E122" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="F122" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="G122" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="H122" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="J122" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="B123" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="C123" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="D123" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="E123" t="s">
         <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="G123" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="H123" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="J123" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="B124" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="C124" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="D124" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="G124" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="H124" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="J124" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="D125" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="E125" t="s">
         <v>12</v>
@@ -7616,27 +7940,27 @@
         <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
       </c>
       <c r="J125" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="B126" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="C126" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="D126" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="E126" t="s">
         <v>12</v>
@@ -7645,56 +7969,56 @@
         <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="H126" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="J126" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="B127" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="C127" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="D127" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="H127" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="J127" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="B128" t="s">
-        <v>634</v>
+        <v>288</v>
       </c>
       <c r="C128" t="s">
-        <v>635</v>
-      </c>
-      <c r="D128" t="s">
-        <v>634</v>
+        <v>650</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -7703,27 +8027,30 @@
         <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="H128" t="s">
-        <v>634</v>
+        <v>288</v>
       </c>
       <c r="J128" t="s">
-        <v>547</v>
+        <v>562</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="B129" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="C129" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="D129" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="E129" t="s">
         <v>12</v>
@@ -7732,27 +8059,27 @@
         <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="H129" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="J129" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B130" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="C130" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="D130" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="E130" t="s">
         <v>12</v>
@@ -7761,143 +8088,143 @@
         <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="H130" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="J130" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="B131" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="C131" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="D131" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F131" t="s">
         <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="H131" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="J131" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="B132" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="C132" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="D132" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="E132" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F132" t="s">
         <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="H132" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="J132" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="B133" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="C133" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="D133" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="E133" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="H133" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="J133" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="B134" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="C134" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="D134" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="E134" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="H134" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="J134" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="B135" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="C135" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="D135" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -7906,56 +8233,56 @@
         <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="H135" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="J135" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="B136" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="C136" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="D136" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="E136" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="F136" t="s">
         <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="H136" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="J136" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B137" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="C137" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="D137" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="E137" t="s">
         <v>12</v>
@@ -7964,114 +8291,117 @@
         <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="H137" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="J137" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B138" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="C138" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="D138" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="E138" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="F138" t="s">
         <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="H138" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="J138" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B139" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="C139" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="D139" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
         <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="H139" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="J139" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B140" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="C140" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="D140" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E140" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="F140" t="s">
         <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="H140" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="J140" t="s">
-        <v>547</v>
+        <v>562</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B141" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="C141" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="D141" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="E141" t="s">
         <v>12</v>
@@ -8080,56 +8410,56 @@
         <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="H141" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="J141" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B142" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="C142" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="D142" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="E142" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F142" t="s">
         <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="H142" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="J142" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B143" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C143" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="D143" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="E143" t="s">
         <v>12</v>
@@ -8138,140 +8468,143 @@
         <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="H143" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="J143" t="s">
-        <v>547</v>
+        <v>562</v>
+      </c>
+      <c r="K143" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B144" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="C144" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="D144" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="H144" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="J144" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B145" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="C145" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="D145" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="E145" t="s">
         <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G145" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="H145" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="J145" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="B146" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="C146" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="D146" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="E146" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="F146" t="s">
         <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="H146" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="J146" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="B147" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="C147" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="D147" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
         <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="H147" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="J147" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
@@ -8283,56 +8616,56 @@
         <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="H148" t="s">
         <v>12</v>
       </c>
       <c r="J148" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="B149" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="C149" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="D149" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
         <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="H149" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="J149" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="B150" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="C150" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="D150" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="E150" t="s">
         <v>12</v>
@@ -8341,172 +8674,172 @@
         <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="H150" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="J150" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="B151" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="C151" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="D151" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G151" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="H151" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="J151" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="B152" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="C152" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="D152" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="E152" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
         <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="H152" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="J152" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="B153" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="C153" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="D153" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="E153" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F153" t="s">
         <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="H153" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="J153" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="B154" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="C154" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="D154" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
         <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="H154" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="J154" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="B155" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="C155" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="D155" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
         <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="H155" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="J155" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="B156" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="C156" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="D156" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -8515,27 +8848,27 @@
         <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="H156" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="J156" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="B157" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C157" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="D157" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="E157" t="s">
         <v>12</v>
@@ -8544,27 +8877,27 @@
         <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="H157" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="J157" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B158" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="C158" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="D158" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="E158" t="s">
         <v>12</v>
@@ -8573,56 +8906,56 @@
         <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="H158" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="J158" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B159" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="C159" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="D159" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F159" t="s">
         <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="H159" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="J159" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B160" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="C160" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="D160" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="E160" t="s">
         <v>12</v>
@@ -8631,27 +8964,27 @@
         <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="H160" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="J160" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B161" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="C161" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="D161" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="E161" t="s">
         <v>12</v>
@@ -8660,27 +8993,27 @@
         <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="H161" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="J161" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B162" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="C162" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="D162" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="E162" t="s">
         <v>12</v>
@@ -8689,27 +9022,27 @@
         <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="H162" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="J162" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B163" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="C163" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="D163" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -8718,27 +9051,27 @@
         <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="H163" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="J163" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B164" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="C164" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="D164" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="E164" t="s">
         <v>12</v>
@@ -8747,201 +9080,204 @@
         <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="H164" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="J164" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="B165" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="C165" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="D165" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="E165" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="H165" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="J165" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="B166" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="C166" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="D166" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="E166" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="F166" t="s">
         <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="H166" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="J166" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="B167" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="C167" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="D167" t="s">
+        <v>829</v>
+      </c>
+      <c r="E167" t="s">
+        <v>830</v>
+      </c>
+      <c r="F167" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" t="s">
+        <v>831</v>
+      </c>
+      <c r="H167" t="s">
+        <v>827</v>
+      </c>
+      <c r="J167" t="s">
         <v>814</v>
-      </c>
-      <c r="E167" t="s">
-        <v>815</v>
-      </c>
-      <c r="F167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" t="s">
-        <v>816</v>
-      </c>
-      <c r="H167" t="s">
-        <v>812</v>
-      </c>
-      <c r="J167" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="B168" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="C168" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="D168" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="H168" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="J168" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="B169" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="C169" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="D169" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="E169" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="F169" t="s">
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
       <c r="H169" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="J169" t="s">
-        <v>799</v>
+        <v>814</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="B170" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="C170" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="D170" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F170" t="s">
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="H170" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="J170" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="B171" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="C171" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="D171" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="E171" t="s">
         <v>12</v>
@@ -8950,114 +9286,114 @@
         <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="H171" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="J171" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="B172" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="C172" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="D172" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F172" t="s">
         <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="H172" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="J172" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="B173" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="C173" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D173" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="E173" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="F173" t="s">
         <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="H173" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="J173" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="B174" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="C174" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="D174" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="H174" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="J174" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="B175" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="C175" t="s">
-        <v>853</v>
-      </c>
-      <c r="D175" t="s">
-        <v>854</v>
+        <v>868</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>869</v>
       </c>
       <c r="E175" t="s">
         <v>12</v>
@@ -9066,163 +9402,166 @@
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="H175" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="J175" t="s">
-        <v>856</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="B176" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="C176" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="D176" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="E176" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="F176" t="s">
         <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="H176" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="J176" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>863</v>
-      </c>
-      <c r="B177" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="C177" t="s">
-        <v>865</v>
-      </c>
-      <c r="D177" t="s">
-        <v>866</v>
+        <v>877</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>878</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
       </c>
-      <c r="F177" t="s">
-        <v>867</v>
-      </c>
       <c r="G177" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="H177" t="s">
-        <v>864</v>
+        <v>419</v>
       </c>
       <c r="J177" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="B178" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="C178" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="D178" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>884</v>
       </c>
       <c r="G178" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="H178" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>881</v>
+      </c>
+      <c r="J178" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="B179" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
       <c r="C179" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="D179" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
       <c r="E179" t="s">
-        <v>878</v>
+        <v>40</v>
       </c>
       <c r="F179" t="s">
         <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="H179" t="s">
-        <v>875</v>
+        <v>888</v>
+      </c>
+      <c r="J179" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="B180" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="C180" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="D180" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>895</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="H180" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="B181" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="C181" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="D181" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="E181" t="s">
         <v>12</v>
@@ -9231,494 +9570,491 @@
         <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="H181" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="B182" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="C182" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="D182" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="E182" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
         <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="H182" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="B183" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="C183" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="D183" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="E183" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F183" t="s">
         <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="H183" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="B184" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="C184" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="D184" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="E184" t="s">
-        <v>903</v>
+        <v>40</v>
       </c>
       <c r="F184" t="s">
         <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="H184" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="B185" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="C185" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="D185" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="E185" t="s">
-        <v>12</v>
+        <v>920</v>
       </c>
       <c r="F185" t="s">
         <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
       <c r="H185" t="s">
-        <v>905</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="B186" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="C186" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="D186" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="E186" t="s">
-        <v>914</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
         <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="H186" t="s">
-        <v>911</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>909</v>
+        <v>922</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="B187" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="C187" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="D187" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="E187" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="F187" t="s">
         <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="H187" t="s">
-        <v>916</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>909</v>
+        <v>928</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="B188" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="C188" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="D188" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>936</v>
       </c>
       <c r="F188" t="s">
         <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
       <c r="H188" t="s">
-        <v>921</v>
-      </c>
-      <c r="J188" s="1" t="s">
-        <v>909</v>
+        <v>933</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="B189" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
       <c r="C189" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
       <c r="D189" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
       <c r="E189" t="s">
         <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="H189" t="s">
-        <v>925</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>909</v>
+        <v>938</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="B190" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
       <c r="C190" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="D190" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="G190" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
       <c r="H190" t="s">
-        <v>929</v>
-      </c>
-      <c r="J190" s="1" t="s">
-        <v>909</v>
+        <v>942</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="B191" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="C191" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
       <c r="D191" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="H191" t="s">
-        <v>933</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>909</v>
+        <v>946</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="B192" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
       <c r="C192" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
       <c r="D192" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
       <c r="E192" t="s">
-        <v>940</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G192" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="H192" t="s">
-        <v>937</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>909</v>
+        <v>950</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="B193" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="C193" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="D193" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="E193" t="s">
-        <v>37</v>
+        <v>957</v>
       </c>
       <c r="F193" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G193" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
       <c r="H193" t="s">
-        <v>942</v>
-      </c>
-      <c r="J193" s="1" t="s">
-        <v>909</v>
+        <v>954</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="B194" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
       <c r="C194" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="D194" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
       <c r="E194" t="s">
-        <v>413</v>
+        <v>40</v>
       </c>
       <c r="F194" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G194" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
       <c r="H194" t="s">
-        <v>946</v>
-      </c>
-      <c r="J194" s="1" t="s">
-        <v>909</v>
+        <v>959</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="B195" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="C195" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="D195" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="G195" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="H195" t="s">
-        <v>951</v>
-      </c>
-      <c r="J195" s="1" t="s">
-        <v>909</v>
+        <v>963</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>950</v>
+        <v>967</v>
       </c>
       <c r="B196" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="C196" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
       <c r="D196" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
       <c r="E196" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
       <c r="H196" t="s">
-        <v>955</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>909</v>
+        <v>968</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>950</v>
+        <v>967</v>
       </c>
       <c r="B197" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
       <c r="C197" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="D197" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G197" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
       <c r="H197" t="s">
-        <v>959</v>
-      </c>
-      <c r="J197" s="1" t="s">
-        <v>909</v>
+        <v>972</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>950</v>
+        <v>967</v>
       </c>
       <c r="B198" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
       <c r="C198" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="D198" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
       <c r="E198" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G198" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
       <c r="H198" t="s">
-        <v>963</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>909</v>
+        <v>976</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -9726,198 +10062,210 @@
         <v>967</v>
       </c>
       <c r="B199" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="C199" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
       <c r="D199" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
       <c r="E199" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
+        <v>358</v>
       </c>
       <c r="G199" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
       <c r="H199" t="s">
-        <v>967</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="B200" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="C200" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="D200" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="E200" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F200" t="s">
         <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="H200" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>984</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="B201" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="C201" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
       <c r="D201" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
       <c r="E201" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
       <c r="H201" t="s">
-        <v>976</v>
+        <v>989</v>
+      </c>
+      <c r="J201" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
       <c r="B202" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
       <c r="C202" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="D202" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
       <c r="E202" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
       <c r="H202" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
       <c r="B203" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="C203" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="D203" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="E203" t="s">
+        <v>40</v>
+      </c>
+      <c r="F203" t="s">
+        <v>13</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H203" t="s">
+        <v>997</v>
+      </c>
+      <c r="J203" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E204" t="s">
         <v>12</v>
       </c>
-      <c r="F203" t="s">
-        <v>13</v>
-      </c>
-      <c r="G203" t="s">
-        <v>988</v>
-      </c>
-      <c r="H203" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>989</v>
-      </c>
-      <c r="B204" t="s">
-        <v>990</v>
-      </c>
-      <c r="C204" t="s">
-        <v>991</v>
-      </c>
-      <c r="D204" t="s">
-        <v>992</v>
-      </c>
-      <c r="E204" t="s">
-        <v>207</v>
-      </c>
       <c r="F204" t="s">
         <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="H204" t="s">
-        <v>990</v>
+        <v>1002</v>
+      </c>
+      <c r="J204" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="B205" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="C205" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="D205" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="E205" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="F205" t="s">
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="H205" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="B206" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="C206" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="D206" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="E206" t="s">
         <v>12</v>
@@ -9926,259 +10274,304 @@
         <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="H206" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="B207" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="C207" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
       <c r="D207" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="E207" t="s">
-        <v>1008</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
         <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="H207" t="s">
-        <v>1005</v>
+        <v>1017</v>
+      </c>
+      <c r="J207" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="B208" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="C208" t="s">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="D208" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="E208" t="s">
-        <v>12</v>
+        <v>1025</v>
       </c>
       <c r="F208" t="s">
         <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="H208" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="B209" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="C209" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="D209" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="E209" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="H209" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="B210" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="C210" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="D210" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="E210" t="s">
-        <v>1024</v>
+        <v>40</v>
       </c>
       <c r="F210" t="s">
-        <v>13</v>
-      </c>
-      <c r="G210" t="s">
-        <v>1025</v>
+        <v>52</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>1036</v>
       </c>
       <c r="H210" t="s">
-        <v>1021</v>
+        <v>1033</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K210" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="B211" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
       <c r="C211" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="D211" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
       <c r="E211" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F211" t="s">
+        <v>13</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E212" t="s">
         <v>12</v>
       </c>
-      <c r="F211" t="s">
-        <v>251</v>
-      </c>
-      <c r="G211" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H211" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="A212" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D212" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E212" t="s">
-        <v>37</v>
-      </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="G212" t="s">
-        <v>1034</v>
+        <v>1047</v>
       </c>
       <c r="H212" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J212" t="s">
-        <v>1030</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
       <c r="B213" t="s">
-        <v>1035</v>
+        <v>1049</v>
       </c>
       <c r="C213" t="s">
-        <v>1036</v>
+        <v>1050</v>
       </c>
       <c r="D213" t="s">
-        <v>1037</v>
+        <v>1051</v>
       </c>
       <c r="E213" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F213" t="s">
         <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>1038</v>
+        <v>1052</v>
       </c>
       <c r="H213" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J213" t="s">
-        <v>1030</v>
+        <v>1049</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
       <c r="B214" t="s">
-        <v>1039</v>
+        <v>1053</v>
       </c>
       <c r="C214" t="s">
-        <v>1040</v>
+        <v>1054</v>
       </c>
       <c r="D214" t="s">
-        <v>1041</v>
+        <v>1055</v>
       </c>
       <c r="E214" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F214" t="s">
         <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>1042</v>
+        <v>1056</v>
       </c>
       <c r="H214" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J214" t="s">
-        <v>1030</v>
+        <v>1053</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
       <c r="B215" t="s">
-        <v>1043</v>
+        <v>1057</v>
       </c>
       <c r="C215" t="s">
-        <v>1044</v>
+        <v>1058</v>
       </c>
       <c r="D215" t="s">
-        <v>1045</v>
+        <v>1059</v>
       </c>
       <c r="E215" t="s">
+        <v>40</v>
+      </c>
+      <c r="F215" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E216" t="s">
         <v>12</v>
       </c>
-      <c r="F215" t="s">
-        <v>13</v>
-      </c>
-      <c r="G215" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H215" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J215" t="s">
-        <v>1030</v>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D128" r:id="rId1" display="https://gitee.com/opensourceway/EaseSearch-Import.git"/>
+    <hyperlink ref="D175" r:id="rId2" display="https://gitee.com/openlookeng/website-debug.git"/>
+    <hyperlink ref="G28" r:id="rId3" display="https://jenkins.osinfra.cn/job/gitee-v8-token/job/gitee-v8-token-production-environment/4/"/>
+    <hyperlink ref="G35" r:id="rId4" display="https://jenkins.osinfra.cn/job/infra-cve-manager/job/infra-cve-manager-prod/15/"/>
+    <hyperlink ref="D177" r:id="rId5" display="https://gitee.com/openlookeng/website-v2.git"/>
+    <hyperlink ref="D99" r:id="rId6" display="https://gitee.com/opensourceway/om-data.git"/>
+    <hyperlink ref="G99" r:id="rId7" display="https://jenkins.osinfra.cn/job/om-data-ci/5/"/>
+    <hyperlink ref="G210" r:id="rId8" display="https://jenkins.osinfra.cn/job/ubmc-prod/job/ubmc-prod-website/13/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/jenkinsProjects/people1728464507838.xlsx
+++ b/jenkinsProjects/people1728464507838.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="1077">
   <si>
     <t>product</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>serviceName</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>所属产品1</t>
+  </si>
+  <si>
+    <t>所属产品2</t>
+  </si>
+  <si>
+    <t>责任人</t>
   </si>
   <si>
     <t>annual-summary</t>
@@ -202,6 +214,9 @@
     <t>https://jenkins.osinfra.cn/job/chatapi/job/big-data-autogpt/58/</t>
   </si>
   <si>
+    <t>big-data</t>
+  </si>
+  <si>
     <t>china-cid</t>
   </si>
   <si>
@@ -401,6 +416,9 @@
     </r>
   </si>
   <si>
+    <t>瞿文杰</t>
+  </si>
+  <si>
     <t>EasySoftwareInput</t>
   </si>
   <si>
@@ -510,6 +528,9 @@
   </si>
   <si>
     <t>https://jenkins.osinfra.cn/job/foundation-model-server/job/foundation-model-server/12/</t>
+  </si>
+  <si>
+    <t>Ascend</t>
   </si>
   <si>
     <t>gitee-v8-token</t>
@@ -909,6 +930,9 @@
     </r>
   </si>
   <si>
+    <t>朱超</t>
+  </si>
+  <si>
     <t>meetingserver-meeting-platform</t>
   </si>
   <si>
@@ -1279,6 +1303,9 @@
   </si>
   <si>
     <t>消息中心</t>
+  </si>
+  <si>
+    <t>石书培</t>
   </si>
   <si>
     <t>message-collect-githook</t>
@@ -1675,6 +1702,9 @@
     </r>
   </si>
   <si>
+    <t>陶飞虎</t>
+  </si>
+  <si>
     <t>om-data-ci</t>
   </si>
   <si>
@@ -2823,6 +2853,9 @@
     <t>openmind</t>
   </si>
   <si>
+    <t>钟源珂</t>
+  </si>
+  <si>
     <t>ops-sandbox-image-publish</t>
   </si>
   <si>
@@ -2941,6 +2974,9 @@
   </si>
   <si>
     <t>机器人</t>
+  </si>
+  <si>
+    <t>姚孝添</t>
   </si>
   <si>
     <t>robot-gitee</t>
@@ -3990,8 +4026,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -4312,10 +4348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L216"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B156" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E68" workbookViewId="0">
+      <selection activeCell="X166" sqref="X166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4328,9 +4364,11 @@
     <col min="8" max="8" width="25.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="20.2857142857143" customWidth="1"/>
     <col min="10" max="10" width="22.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="15.7809523809524" customWidth="1"/>
+    <col min="13" max="13" width="16.4666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4355,6210 +4393,6360 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>43</v>
+      <c r="J8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
         <v>105</v>
       </c>
-      <c r="H19" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H20" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="M20" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" t="s">
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>110</v>
-      </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>106</v>
+        <v>17</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="J27" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" t="s">
-        <v>154</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H32" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H34" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="J35" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H36" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H37" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H38" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H39" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J39" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="J40" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" t="s">
         <v>214</v>
-      </c>
-      <c r="C41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" t="s">
-        <v>216</v>
-      </c>
-      <c r="E41" t="s">
-        <v>217</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>218</v>
-      </c>
-      <c r="H41" t="s">
-        <v>214</v>
-      </c>
-      <c r="J41" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="J42" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H43" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="J43" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H44" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="J44" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H45" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="J45" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D47" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H47" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J47" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B48" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C48" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H48" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J48" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C49" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H49" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="J49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C50" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F50" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G50" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>263</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="M50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C51" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D51" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G51" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H51" t="s">
-        <v>264</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="M51" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B52" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D52" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G52" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H52" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="J52" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C53" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D53" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G53" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="H53" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="J53" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C54" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D54" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G54" t="s">
+        <v>290</v>
+      </c>
+      <c r="H54" t="s">
+        <v>287</v>
+      </c>
+      <c r="J54" t="s">
         <v>282</v>
-      </c>
-      <c r="H54" t="s">
-        <v>279</v>
-      </c>
-      <c r="J54" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C55" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D55" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E55" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H55" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J55" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B56" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C56" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="H56" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J56" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C57" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G57" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="H57" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="J57" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B58" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C58" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D58" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H58" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J58" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C59" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D59" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G59" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H59" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="J59" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B60" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C60" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D60" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G60" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H60" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="J60" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C61" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D61" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E61" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F61" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G61" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H61" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J61" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D62" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E62" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F62" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G62" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H62" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="J62" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C63" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D63" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E63" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F63" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G63" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H63" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J63" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B64" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C64" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D64" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E64" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F64" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G64" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H64" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="J64" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D65" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E65" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F65" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G65" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H65" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="J65" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C66" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D66" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E66" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F66" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G66" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H66" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="J66" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C67" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D67" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E67" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F67" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="G67" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H67" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="J67" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B68" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C68" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D68" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F68" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="G68" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H68" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J68" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B69" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D69" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E69" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F69" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G69" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="H69" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="J69" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B70" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C70" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D70" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E70" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F70" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G70" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H70" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="J70" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C71" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D71" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F71" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G71" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H71" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="J71" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B72" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C72" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D72" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E72" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F72" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G72" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H72" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="J72" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C73" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D73" t="s">
+        <v>385</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
         <v>377</v>
       </c>
-      <c r="E73" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s">
-        <v>369</v>
-      </c>
       <c r="G73" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H73" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="J73" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B74" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C74" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D74" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E74" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F74" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G74" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H74" t="s">
-        <v>380</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>388</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B75" t="s">
+        <v>396</v>
+      </c>
+      <c r="C75" t="s">
+        <v>397</v>
+      </c>
+      <c r="D75" t="s">
+        <v>398</v>
+      </c>
+      <c r="E75" t="s">
+        <v>399</v>
+      </c>
+      <c r="F75" t="s">
+        <v>392</v>
+      </c>
+      <c r="G75" t="s">
+        <v>400</v>
+      </c>
+      <c r="H75" t="s">
+        <v>396</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
         <v>387</v>
       </c>
-      <c r="C75" t="s">
-        <v>388</v>
-      </c>
-      <c r="D75" t="s">
-        <v>389</v>
-      </c>
-      <c r="E75" t="s">
-        <v>390</v>
-      </c>
-      <c r="F75" t="s">
-        <v>384</v>
-      </c>
-      <c r="G75" t="s">
-        <v>391</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="B76" t="s">
+        <v>401</v>
+      </c>
+      <c r="C76" t="s">
+        <v>402</v>
+      </c>
+      <c r="D76" t="s">
+        <v>403</v>
+      </c>
+      <c r="E76" t="s">
+        <v>404</v>
+      </c>
+      <c r="F76" t="s">
+        <v>405</v>
+      </c>
+      <c r="G76" t="s">
+        <v>406</v>
+      </c>
+      <c r="H76" t="s">
+        <v>401</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
         <v>387</v>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" t="s">
-        <v>379</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
+        <v>407</v>
+      </c>
+      <c r="C77" t="s">
+        <v>408</v>
+      </c>
+      <c r="D77" t="s">
+        <v>409</v>
+      </c>
+      <c r="E77" t="s">
+        <v>410</v>
+      </c>
+      <c r="F77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G77" t="s">
+        <v>411</v>
+      </c>
+      <c r="H77" t="s">
+        <v>407</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" t="s">
+        <v>412</v>
+      </c>
+      <c r="C78" t="s">
+        <v>413</v>
+      </c>
+      <c r="D78" t="s">
+        <v>414</v>
+      </c>
+      <c r="E78" t="s">
+        <v>415</v>
+      </c>
+      <c r="F78" t="s">
         <v>392</v>
       </c>
-      <c r="C76" t="s">
-        <v>393</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="G78" t="s">
+        <v>416</v>
+      </c>
+      <c r="H78" t="s">
+        <v>412</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E76" t="s">
+      <c r="M78" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F76" t="s">
-        <v>396</v>
-      </c>
-      <c r="G76" t="s">
-        <v>397</v>
-      </c>
-      <c r="H76" t="s">
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>387</v>
+      </c>
+      <c r="B79" t="s">
+        <v>417</v>
+      </c>
+      <c r="C79" t="s">
+        <v>418</v>
+      </c>
+      <c r="D79" t="s">
+        <v>419</v>
+      </c>
+      <c r="E79" t="s">
+        <v>415</v>
+      </c>
+      <c r="F79" t="s">
         <v>392</v>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" t="s">
-        <v>379</v>
-      </c>
-      <c r="B77" t="s">
-        <v>398</v>
-      </c>
-      <c r="C77" t="s">
-        <v>399</v>
-      </c>
-      <c r="D77" t="s">
-        <v>400</v>
-      </c>
-      <c r="E77" t="s">
-        <v>401</v>
-      </c>
-      <c r="F77" t="s">
-        <v>52</v>
-      </c>
-      <c r="G77" t="s">
-        <v>402</v>
-      </c>
-      <c r="H77" t="s">
-        <v>398</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>379</v>
-      </c>
-      <c r="B78" t="s">
-        <v>403</v>
-      </c>
-      <c r="C78" t="s">
-        <v>404</v>
-      </c>
-      <c r="D78" t="s">
-        <v>405</v>
-      </c>
-      <c r="E78" t="s">
-        <v>406</v>
-      </c>
-      <c r="F78" t="s">
-        <v>384</v>
-      </c>
-      <c r="G78" t="s">
-        <v>407</v>
-      </c>
-      <c r="H78" t="s">
-        <v>403</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>379</v>
-      </c>
-      <c r="B79" t="s">
-        <v>408</v>
-      </c>
-      <c r="C79" t="s">
-        <v>409</v>
-      </c>
-      <c r="D79" t="s">
-        <v>410</v>
-      </c>
-      <c r="E79" t="s">
-        <v>406</v>
-      </c>
-      <c r="F79" t="s">
-        <v>384</v>
-      </c>
       <c r="G79" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H79" t="s">
-        <v>408</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>417</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B80" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C80" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="D80" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="E80" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="H80" t="s">
-        <v>413</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>386</v>
+        <v>422</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B81" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C81" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D81" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="H81" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="J81" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B82" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C82" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D82" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H82" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="J82" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C83" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D83" t="s">
+        <v>441</v>
+      </c>
+      <c r="E83" t="s">
+        <v>442</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>443</v>
+      </c>
+      <c r="H83" t="s">
+        <v>439</v>
+      </c>
+      <c r="J83" t="s">
         <v>432</v>
       </c>
-      <c r="E83" t="s">
-        <v>433</v>
-      </c>
-      <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s">
-        <v>434</v>
-      </c>
-      <c r="H83" t="s">
-        <v>430</v>
-      </c>
-      <c r="J83" t="s">
-        <v>423</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>435</v>
+      <c r="K83" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B84" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C84" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D84" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="G84" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="H84" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="J84" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B85" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C85" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D85" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="E85" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H85" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="J85" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C86" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D86" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G86" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H86" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="J86" t="s">
-        <v>423</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>29</v>
+        <v>432</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B87" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C87" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D87" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H87" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="J87" t="s">
-        <v>423</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>453</v>
+        <v>432</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B88" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="C88" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="D88" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="E88" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="H88" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="J88" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B89" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C89" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D89" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H89" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="J89" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B90" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C90" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D90" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="E90" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="H90" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="J90" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B91" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C91" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D91" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H91" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="J91" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B92" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C92" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D92" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H92" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="J92" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B93" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C93" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D93" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="H93" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="J93" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B94" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="C94" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D94" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H94" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="J94" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C95" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D95" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="H95" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="J95" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B96" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C96" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D96" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H96" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B97" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C97" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D97" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="H97" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="J97" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B98" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C98" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D98" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H98" t="s">
-        <v>503</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>512</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="H99" t="s">
-        <v>512</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>522</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="C100" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D100" t="s">
+        <v>526</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>116</v>
+      </c>
+      <c r="G100" t="s">
+        <v>527</v>
+      </c>
+      <c r="H100" t="s">
+        <v>524</v>
+      </c>
+      <c r="J100" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E100" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" t="s">
-        <v>110</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="M100" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="H100" t="s">
-        <v>514</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" spans="1:11">
+    </row>
+    <row r="101" ht="15.75" spans="1:13">
       <c r="A101" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B101" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C101" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D101" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="E101" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="H101" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" spans="1:11">
+        <v>534</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" spans="1:13">
       <c r="A102" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B102" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="C102" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="D102" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="H102" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>507</v>
+        <v>534</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B103" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C103" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D103" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="H103" t="s">
-        <v>530</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>534</v>
+        <v>540</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="K103" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B104" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="C104" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="D104" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G104" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="H104" t="s">
-        <v>536</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>534</v>
+        <v>546</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="K104" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B105" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C105" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D105" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G105" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="H105" t="s">
-        <v>540</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>534</v>
+        <v>550</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="K105" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B106" t="s">
+        <v>554</v>
+      </c>
+      <c r="C106" t="s">
+        <v>555</v>
+      </c>
+      <c r="D106" t="s">
+        <v>556</v>
+      </c>
+      <c r="E106" t="s">
+        <v>129</v>
+      </c>
+      <c r="F106" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" t="s">
+        <v>557</v>
+      </c>
+      <c r="H106" t="s">
+        <v>554</v>
+      </c>
+      <c r="J106" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C106" t="s">
+      <c r="K106" t="s">
         <v>545</v>
-      </c>
-      <c r="D106" t="s">
-        <v>546</v>
-      </c>
-      <c r="E106" t="s">
-        <v>123</v>
-      </c>
-      <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s">
-        <v>547</v>
-      </c>
-      <c r="H106" t="s">
-        <v>544</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="K106" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B107" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="C107" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="D107" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="E107" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="H107" t="s">
-        <v>548</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>534</v>
+        <v>558</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="K107" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B108" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C108" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="D108" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="H108" t="s">
-        <v>553</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>534</v>
+        <v>563</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="K108" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B109" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C109" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D109" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="E109" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H109" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="J109" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="B110" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="C110" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="D110" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="H110" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="J110" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B111" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="C111" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="D111" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G111" t="s">
+        <v>582</v>
+      </c>
+      <c r="H111" t="s">
+        <v>579</v>
+      </c>
+      <c r="J111" t="s">
         <v>572</v>
-      </c>
-      <c r="H111" t="s">
-        <v>569</v>
-      </c>
-      <c r="J111" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B112" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="C112" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="D112" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="H112" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="J112" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B113" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="C113" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="D113" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="H113" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="J113" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B114" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="C114" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="D114" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="H114" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="J114" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B115" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C115" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="D115" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="G115" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="H115" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="J115" t="s">
-        <v>562</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>592</v>
+        <v>572</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B116" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="C116" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="D116" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G116" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="H116" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="J116" t="s">
-        <v>562</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>592</v>
+        <v>572</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B117" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="C117" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="D117" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="H117" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="J117" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B118" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="C118" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="D118" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="H118" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="J118" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B119" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="C119" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="D119" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="E119" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="H119" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="J119" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B120" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="C120" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D120" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G120" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="H120" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="J120" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B121" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="C121" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="D121" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G121" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="H121" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="J121" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B122" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="C122" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="D122" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="E122" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="F122" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="G122" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="H122" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="J122" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B123" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="C123" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D123" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F123" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="G123" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="H123" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="J123" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B124" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="C124" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D124" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="G124" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="H124" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="J124" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C125" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="D125" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G125" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J125" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B126" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C126" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="D126" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G126" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="H126" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="J126" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="B127" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="C127" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="D127" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G127" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="H127" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="J127" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B128" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C128" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="H128" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J128" t="s">
-        <v>562</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>435</v>
+        <v>572</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="C129" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="D129" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="H129" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="J129" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="B130" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="C130" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="D130" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="H130" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="J130" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B131" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="C131" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="D131" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="H131" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="J131" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="B132" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="C132" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="D132" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="H132" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="J132" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="B133" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="C133" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="D133" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="E133" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="H133" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="J133" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="B134" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C134" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="D134" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="E134" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="H134" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="J134" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B135" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="C135" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="D135" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="H135" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="J135" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B136" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="C136" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="D136" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="E136" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G136" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="H136" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="J136" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B137" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="C137" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="D137" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G137" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="H137" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="J137" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B138" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="C138" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="D138" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="E138" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="H138" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="J138" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B139" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="C139" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="D139" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G139" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="H139" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="J139" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B140" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="C140" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="D140" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="E140" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G140" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="H140" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="J140" t="s">
-        <v>562</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>29</v>
+        <v>572</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B141" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C141" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="D141" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G141" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="H141" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="J141" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B142" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="C142" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="D142" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="E142" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G142" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="H142" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="J142" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B143" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="C143" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="D143" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G143" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="H143" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="J143" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="K143" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B144" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="C144" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="D144" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G144" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="H144" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="J144" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B145" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="C145" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="D145" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G145" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="H145" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="J145" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B146" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="C146" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="D146" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="E146" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G146" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="H146" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="J146" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="B147" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="C147" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="D147" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G147" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="H147" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="J147" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G148" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="H148" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J148" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="B149" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="C149" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="D149" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G149" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="H149" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="J149" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B150" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="C150" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="D150" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G150" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="H150" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="J150" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B151" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="C151" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="D151" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G151" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="H151" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="J151" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B152" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="C152" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="D152" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G152" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="H152" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="J152" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B153" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="C153" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="D153" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="E153" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="H153" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="J153" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B154" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="C154" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="D154" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G154" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="H154" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="J154" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B155" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="C155" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="D155" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G155" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="H155" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="J155" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="B156" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="C156" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="D156" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="H156" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="J156" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B157" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="C157" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="D157" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="E157" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G157" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="H157" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="J157" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="B158" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="C158" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="D158" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G158" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="H158" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="J158" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="B159" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="C159" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="D159" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G159" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="H159" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="J159" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="B160" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="C160" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="D160" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G160" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="H160" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="J160" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="B161" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="C161" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="D161" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G161" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="H161" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="J161" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="B162" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="C162" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="D162" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="H162" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="J162" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="B163" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="C163" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="D163" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="H163" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="J163" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="B164" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="C164" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="D164" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="H164" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="J164" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="B165" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="C165" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="D165" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="E165" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G165" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="H165" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="J165" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B166" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="C166" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="D166" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="E166" t="s">
+        <v>834</v>
+      </c>
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>835</v>
+      </c>
+      <c r="H166" t="s">
+        <v>831</v>
+      </c>
+      <c r="J166" t="s">
         <v>824</v>
-      </c>
-      <c r="F166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s">
-        <v>825</v>
-      </c>
-      <c r="H166" t="s">
-        <v>821</v>
-      </c>
-      <c r="J166" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="B167" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="C167" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D167" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="E167" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G167" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="H167" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="J167" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="B168" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="C168" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="D168" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="E168" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G168" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="H168" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="J168" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="B169" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="C169" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="D169" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="E169" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G169" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="H169" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="J169" t="s">
-        <v>814</v>
-      </c>
-      <c r="K169" s="4" t="s">
-        <v>29</v>
+        <v>824</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="B170" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="C170" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="D170" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="E170" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G170" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="H170" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="J170" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="B171" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="C171" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="D171" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="E171" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G171" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="H171" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="J171" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="B172" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="C172" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="D172" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G172" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="H172" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="J172" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="B173" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="C173" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="D173" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E173" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G173" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="H173" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="J173" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="B174" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="C174" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="D174" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G174" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="H174" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="J174" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="B175" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="C175" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="E175" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G175" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="H175" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="J175" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="B176" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="C176" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="D176" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="E176" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G176" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="H176" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="J176" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="C177" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="E177" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G177" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="H177" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="J177" t="s">
-        <v>30</v>
-      </c>
-      <c r="K177" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B178" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="C178" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="D178" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="E178" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F178" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="G178" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="H178" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="J178" t="s">
-        <v>886</v>
+        <v>896</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="B179" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="C179" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="D179" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G179" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="H179" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="J179" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="B180" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="C180" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="D180" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="E180" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="F180" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G180" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="H180" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="B181" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="C181" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="D181" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G181" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="H181" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="B182" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="C182" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="D182" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G182" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="H182" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="B183" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="C183" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="D183" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="E183" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F183" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G183" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="H183" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="B184" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="C184" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="D184" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G184" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="H184" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="B185" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="C185" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="D185" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="E185" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G185" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="H185" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="B186" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="C186" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="D186" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="E186" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G186" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="H186" t="s">
-        <v>922</v>
-      </c>
-      <c r="J186" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
+        <v>933</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="B187" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="C187" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="D187" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="E187" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G187" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="H187" t="s">
-        <v>928</v>
-      </c>
-      <c r="J187" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
+        <v>940</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="B188" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="C188" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="D188" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="E188" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G188" t="s">
+        <v>949</v>
+      </c>
+      <c r="H188" t="s">
+        <v>945</v>
+      </c>
+      <c r="J188" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="H188" t="s">
-        <v>933</v>
-      </c>
-      <c r="J188" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="M188" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="B189" t="s">
+        <v>950</v>
+      </c>
+      <c r="C189" t="s">
+        <v>951</v>
+      </c>
+      <c r="D189" t="s">
+        <v>952</v>
+      </c>
+      <c r="E189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189" t="s">
+        <v>953</v>
+      </c>
+      <c r="H189" t="s">
+        <v>950</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M189" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="C189" t="s">
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190" t="s">
         <v>939</v>
       </c>
-      <c r="D189" t="s">
-        <v>940</v>
-      </c>
-      <c r="E189" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" t="s">
-        <v>941</v>
-      </c>
-      <c r="H189" t="s">
+      <c r="B190" t="s">
+        <v>954</v>
+      </c>
+      <c r="C190" t="s">
+        <v>955</v>
+      </c>
+      <c r="D190" t="s">
+        <v>956</v>
+      </c>
+      <c r="E190" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190" t="s">
+        <v>169</v>
+      </c>
+      <c r="G190" t="s">
+        <v>957</v>
+      </c>
+      <c r="H190" t="s">
+        <v>954</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M190" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="J189" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
-      <c r="A190" t="s">
-        <v>927</v>
-      </c>
-      <c r="B190" t="s">
-        <v>942</v>
-      </c>
-      <c r="C190" t="s">
-        <v>943</v>
-      </c>
-      <c r="D190" t="s">
-        <v>944</v>
-      </c>
-      <c r="E190" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" t="s">
-        <v>162</v>
-      </c>
-      <c r="G190" t="s">
-        <v>945</v>
-      </c>
-      <c r="H190" t="s">
-        <v>942</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="B191" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="C191" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="D191" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="E191" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G191" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="H191" t="s">
-        <v>946</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+        <v>958</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="B192" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="C192" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="D192" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="E192" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F192" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G192" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="H192" t="s">
-        <v>950</v>
-      </c>
-      <c r="J192" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
+        <v>962</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="B193" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="C193" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="D193" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="E193" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="F193" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G193" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="H193" t="s">
-        <v>954</v>
-      </c>
-      <c r="J193" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
+        <v>966</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="B194" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="C194" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="D194" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="E194" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F194" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G194" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="H194" t="s">
-        <v>959</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
+        <v>971</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="B195" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="C195" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="D195" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="E195" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F195" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G195" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="H195" t="s">
-        <v>963</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+        <v>975</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="B196" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="C196" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="D196" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F196" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G196" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="H196" t="s">
-        <v>968</v>
-      </c>
-      <c r="J196" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+        <v>980</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="B197" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="C197" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="D197" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F197" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G197" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="H197" t="s">
-        <v>972</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
+        <v>984</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M197" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="B198" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="C198" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="D198" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F198" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G198" t="s">
+        <v>991</v>
+      </c>
+      <c r="H198" t="s">
+        <v>988</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" t="s">
         <v>979</v>
       </c>
-      <c r="H198" t="s">
-        <v>976</v>
-      </c>
-      <c r="J198" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
-      <c r="A199" t="s">
-        <v>967</v>
-      </c>
       <c r="B199" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="C199" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="D199" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="E199" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F199" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G199" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="H199" t="s">
-        <v>980</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>992</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="B200" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="C200" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="D200" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="E200" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F200" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G200" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="H200" t="s">
-        <v>984</v>
-      </c>
-      <c r="J200" s="4" t="s">
-        <v>926</v>
+        <v>996</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M200" s="3" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="B201" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="C201" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="D201" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="E201" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G201" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="H201" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="J201" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="B202" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="C202" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="D202" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="E202" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G202" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="H202" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="B203" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="C203" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="D203" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F203" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G203" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="H203" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="J203" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="B204" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="C204" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="D204" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G204" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="H204" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="J204" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
       <c r="B205" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="C205" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="D205" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="E205" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F205" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G205" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="H205" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="B206" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="C206" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="D206" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="E206" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F206" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G206" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="H206" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="B207" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="C207" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="D207" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="E207" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G207" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="H207" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="J207" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="B208" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="C208" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="D208" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="E208" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="F208" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="H208" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="B209" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="C209" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="D209" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="E209" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F209" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G209" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="H209" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="B210" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="C210" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="D210" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="E210" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F210" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="H210" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="J210" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K210" s="4" t="s">
-        <v>29</v>
+        <v>1049</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="B211" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="C211" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="D211" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="E211" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G211" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="H211" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="B212" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="C212" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="D212" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="E212" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F212" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G212" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="H212" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="B213" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="C213" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
       <c r="D213" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
       <c r="E213" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F213" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="H213" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
+        <v>1061</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M213" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="B214" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="C214" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
       <c r="D214" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="E214" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G214" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="H214" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J214" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
+        <v>1065</v>
+      </c>
+      <c r="J214" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="B215" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="C215" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="D215" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
       <c r="E215" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G215" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
+      <c r="A216" t="s">
         <v>1060</v>
       </c>
-      <c r="H215" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J215" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="A216" t="s">
-        <v>1048</v>
-      </c>
       <c r="B216" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="C216" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="D216" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G216" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="H216" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J216" s="3" t="s">
-        <v>453</v>
+        <v>1073</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>897</v>
       </c>
     </row>
   </sheetData>
